--- a/実装指針及び実装ガイド.xlsx
+++ b/実装指針及び実装ガイド.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2237ED75-9A46-4E8D-9D00-BF7681CCA893}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CBC6DE-7651-4B93-B2C2-E5BAEF879766}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="342">
   <si>
     <t>■本ドキュメントの目的</t>
     <rPh sb="1" eb="2">
@@ -2826,13 +2826,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以上</t>
-    <rPh sb="0" eb="2">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>となっているため、画面には「入力は数字にて行ってください。」と表示されます。</t>
     <rPh sb="9" eb="11">
       <t>ガメン</t>
@@ -3031,6 +3024,352 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019/06/09追記</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BeanValidation対象アノテーション一覧</t>
+    <rPh sb="14" eb="16">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※使いそうなやつと岩井作成のもの</t>
+    <rPh sb="1" eb="2">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イワイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Numeric</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@NotNumeric</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@NotEmpty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@HalfWidthCharacter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min max message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用例</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Size(min = 1, max = 10, message = "えらーめっせーじ")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトエラーメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{min}文字以上{max}文字以下で入力してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力が必須です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力は数字にて行ってください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力は数値以外にて行ってください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力は半角文字で行ってください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@NotEmpty(message = "えらーめっせーじ")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Numeric(message = "えらーめっせーじ")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@NotNumeric(message = "えらーめっせーじ")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@HalfWidthCharacter(message = "えらーめっせーじ")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージを一緒に設定できるようにしました。</t>
+    <rPh sb="6" eb="8">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@NotEmptyとだけ付与した場合、エラーメッセージは「入力が必須です。」となりますが、</t>
+    <rPh sb="12" eb="14">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@NotEmpty(message = "えらーめっせーじ")のようにmessage属性を定義して表示したエラーメッセージを与えると、画面には「えらーめっせーじ」といった形で出ます。</t>
+    <rPh sb="42" eb="44">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトエラーメッセージはValidationMessages.propertiesに定義されており、ここを変えるとデフォルトエラーメッセージが変わります。</t>
+    <rPh sb="44" eb="46">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この辺は好きにいじってもらえればと。</t>
+    <rPh sb="2" eb="3">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それと、Aチームからの要望により、@HalfWidthCharacterを追加しました。</t>
+    <rPh sb="11" eb="13">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様としては、「半角のa～z、半角のA～Z、半角の0～9、及び半角の-_@+*;:#$%&amp;」以外の文字が入力された場合にエラーとします。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まぁ簡単に言えば半角文字かチェックしたい場合に良いかなと。</t>
+    <rPh sb="2" eb="4">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記号は「.」とか許容しちゃいますが、あまり記号については深く考えていないです。</t>
+    <rPh sb="0" eb="2">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要望として「.とか,」も許容したい、という話なら教えてください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字桁数チェック</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値チェック</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値以外チェック</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角文字チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3039,7 +3378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3116,14 +3455,22 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="1"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="1"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3136,8 +3483,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -3283,12 +3636,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3307,22 +3802,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3335,6 +3814,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3618,7 +4130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="19.5"/>
   <cols>
@@ -3714,7 +4226,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="C21" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -3756,31 +4268,31 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:25">
       <c r="B5" s="2" t="s">
@@ -3843,402 +4355,420 @@
       </c>
     </row>
     <row r="19" spans="1:42">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
     </row>
     <row r="20" spans="1:42">
-      <c r="B20" s="26">
+      <c r="B20" s="20">
         <f>ROW()-19</f>
         <v>1</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="27"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="27"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="21"/>
+      <c r="AP20" s="21"/>
     </row>
     <row r="21" spans="1:42">
-      <c r="B21" s="21">
+      <c r="B21" s="22">
         <f t="shared" ref="B21:B26" si="0">ROW()-19</f>
         <v>2</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="22"/>
-      <c r="AL21" s="22"/>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="22"/>
-      <c r="AO21" s="22"/>
-      <c r="AP21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="23"/>
     </row>
     <row r="22" spans="1:42" ht="99.95" customHeight="1">
-      <c r="B22" s="21">
+      <c r="B22" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="22"/>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="22"/>
-      <c r="AO22" s="22"/>
-      <c r="AP22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
     </row>
     <row r="23" spans="1:42" ht="39.950000000000003" customHeight="1">
-      <c r="B23" s="21">
+      <c r="B23" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="23"/>
-      <c r="AN23" s="23"/>
-      <c r="AO23" s="23"/>
-      <c r="AP23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
     </row>
     <row r="24" spans="1:42" ht="80.099999999999994" customHeight="1">
-      <c r="B24" s="21">
+      <c r="B24" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="23"/>
-      <c r="AL24" s="23"/>
-      <c r="AM24" s="23"/>
-      <c r="AN24" s="23"/>
-      <c r="AO24" s="23"/>
-      <c r="AP24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
     </row>
     <row r="25" spans="1:42">
-      <c r="B25" s="21">
+      <c r="B25" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22" t="s">
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="22"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="22"/>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="22"/>
-      <c r="AO25" s="22"/>
-      <c r="AP25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="23"/>
     </row>
     <row r="26" spans="1:42">
-      <c r="B26" s="19">
+      <c r="B26" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AP26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AP25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:AP23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AP24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:AP21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:AP22"/>
     <mergeCell ref="C4:Y4"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:J19"/>
@@ -4246,24 +4776,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="K20:AP20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:AP21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:AP22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="K23:AP23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AP24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AP26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AP25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -8624,9 +9136,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2F3FD0-2B7A-45A5-9010-5C986118876C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AQ195"/>
+  <dimension ref="A1:BJ215"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
@@ -11356,7 +11870,7 @@
     </row>
     <row r="158" spans="2:33">
       <c r="B158" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="160" spans="2:33">
@@ -12193,6 +12707,7 @@
       <c r="B187" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="Q187" s="43"/>
     </row>
     <row r="189" spans="2:33">
       <c r="B189" s="2" t="s">
@@ -12203,25 +12718,525 @@
       <c r="B190" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="Q190" s="43"/>
     </row>
     <row r="191" spans="2:33">
       <c r="B191" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="2" t="s">
-        <v>282</v>
+    <row r="193" spans="1:62">
+      <c r="B193" s="44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="194" spans="1:62" s="27" customFormat="1">
+      <c r="A194" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="196" spans="1:62">
+      <c r="B196" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="197" spans="1:62">
+      <c r="B197" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="199" spans="1:62">
+      <c r="B199" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C199" s="37"/>
+      <c r="D199" s="37"/>
+      <c r="E199" s="37"/>
+      <c r="F199" s="37"/>
+      <c r="G199" s="37"/>
+      <c r="H199" s="37"/>
+      <c r="I199" s="37"/>
+      <c r="J199" s="37"/>
+      <c r="K199" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="L199" s="37"/>
+      <c r="M199" s="37"/>
+      <c r="N199" s="37"/>
+      <c r="O199" s="37"/>
+      <c r="P199" s="37"/>
+      <c r="Q199" s="37"/>
+      <c r="R199" s="38"/>
+      <c r="S199" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="T199" s="37"/>
+      <c r="U199" s="37"/>
+      <c r="V199" s="37"/>
+      <c r="W199" s="37"/>
+      <c r="X199" s="37"/>
+      <c r="Y199" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z199" s="37"/>
+      <c r="AA199" s="37"/>
+      <c r="AB199" s="37"/>
+      <c r="AC199" s="37"/>
+      <c r="AD199" s="37"/>
+      <c r="AE199" s="37"/>
+      <c r="AF199" s="37"/>
+      <c r="AG199" s="37"/>
+      <c r="AH199" s="37"/>
+      <c r="AI199" s="37"/>
+      <c r="AJ199" s="37"/>
+      <c r="AK199" s="37"/>
+      <c r="AL199" s="37"/>
+      <c r="AM199" s="37"/>
+      <c r="AN199" s="37"/>
+      <c r="AO199" s="37"/>
+      <c r="AP199" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="AQ199" s="37"/>
+      <c r="AR199" s="37"/>
+      <c r="AS199" s="37"/>
+      <c r="AT199" s="37"/>
+      <c r="AU199" s="37"/>
+      <c r="AV199" s="37"/>
+      <c r="AW199" s="37"/>
+      <c r="AX199" s="37"/>
+      <c r="AY199" s="37"/>
+      <c r="AZ199" s="37"/>
+      <c r="BA199" s="37"/>
+      <c r="BB199" s="37"/>
+      <c r="BC199" s="37"/>
+      <c r="BD199" s="37"/>
+      <c r="BE199" s="37"/>
+      <c r="BF199" s="37"/>
+      <c r="BG199" s="37"/>
+      <c r="BH199" s="37"/>
+      <c r="BI199" s="37"/>
+      <c r="BJ199" s="38"/>
+    </row>
+    <row r="200" spans="1:62">
+      <c r="B200" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="32"/>
+      <c r="I200" s="32"/>
+      <c r="J200" s="32"/>
+      <c r="K200" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="L200" s="32"/>
+      <c r="M200" s="32"/>
+      <c r="N200" s="32"/>
+      <c r="O200" s="32"/>
+      <c r="P200" s="32"/>
+      <c r="Q200" s="32"/>
+      <c r="R200" s="33"/>
+      <c r="S200" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="T200" s="32"/>
+      <c r="U200" s="32"/>
+      <c r="V200" s="32"/>
+      <c r="W200" s="32"/>
+      <c r="X200" s="32"/>
+      <c r="Y200" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z200" s="32"/>
+      <c r="AA200" s="32"/>
+      <c r="AB200" s="32"/>
+      <c r="AC200" s="32"/>
+      <c r="AD200" s="32"/>
+      <c r="AE200" s="32"/>
+      <c r="AF200" s="32"/>
+      <c r="AG200" s="32"/>
+      <c r="AH200" s="32"/>
+      <c r="AI200" s="32"/>
+      <c r="AJ200" s="32"/>
+      <c r="AK200" s="32"/>
+      <c r="AL200" s="32"/>
+      <c r="AM200" s="32"/>
+      <c r="AN200" s="32"/>
+      <c r="AO200" s="32"/>
+      <c r="AP200" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ200" s="32"/>
+      <c r="AR200" s="32"/>
+      <c r="AS200" s="32"/>
+      <c r="AT200" s="32"/>
+      <c r="AU200" s="32"/>
+      <c r="AV200" s="32"/>
+      <c r="AW200" s="32"/>
+      <c r="AX200" s="32"/>
+      <c r="AY200" s="32"/>
+      <c r="AZ200" s="32"/>
+      <c r="BA200" s="32"/>
+      <c r="BB200" s="32"/>
+      <c r="BC200" s="32"/>
+      <c r="BD200" s="32"/>
+      <c r="BE200" s="32"/>
+      <c r="BF200" s="32"/>
+      <c r="BG200" s="32"/>
+      <c r="BH200" s="32"/>
+      <c r="BI200" s="32"/>
+      <c r="BJ200" s="33"/>
+    </row>
+    <row r="201" spans="1:62">
+      <c r="B201" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C201" s="29"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="29"/>
+      <c r="F201" s="29"/>
+      <c r="G201" s="29"/>
+      <c r="H201" s="29"/>
+      <c r="I201" s="29"/>
+      <c r="J201" s="29"/>
+      <c r="K201" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L201" s="29"/>
+      <c r="M201" s="29"/>
+      <c r="N201" s="29"/>
+      <c r="O201" s="29"/>
+      <c r="P201" s="29"/>
+      <c r="Q201" s="29"/>
+      <c r="R201" s="30"/>
+      <c r="S201" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="T201" s="29"/>
+      <c r="U201" s="29"/>
+      <c r="V201" s="29"/>
+      <c r="W201" s="29"/>
+      <c r="X201" s="29"/>
+      <c r="Y201" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z201" s="29"/>
+      <c r="AA201" s="29"/>
+      <c r="AB201" s="29"/>
+      <c r="AC201" s="29"/>
+      <c r="AD201" s="29"/>
+      <c r="AE201" s="29"/>
+      <c r="AF201" s="29"/>
+      <c r="AG201" s="29"/>
+      <c r="AH201" s="29"/>
+      <c r="AI201" s="29"/>
+      <c r="AJ201" s="29"/>
+      <c r="AK201" s="29"/>
+      <c r="AL201" s="29"/>
+      <c r="AM201" s="29"/>
+      <c r="AN201" s="29"/>
+      <c r="AO201" s="29"/>
+      <c r="AP201" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="AQ201" s="29"/>
+      <c r="AR201" s="29"/>
+      <c r="AS201" s="29"/>
+      <c r="AT201" s="29"/>
+      <c r="AU201" s="29"/>
+      <c r="AV201" s="29"/>
+      <c r="AW201" s="29"/>
+      <c r="AX201" s="29"/>
+      <c r="AY201" s="29"/>
+      <c r="AZ201" s="29"/>
+      <c r="BA201" s="29"/>
+      <c r="BB201" s="29"/>
+      <c r="BC201" s="29"/>
+      <c r="BD201" s="29"/>
+      <c r="BE201" s="29"/>
+      <c r="BF201" s="29"/>
+      <c r="BG201" s="29"/>
+      <c r="BH201" s="29"/>
+      <c r="BI201" s="29"/>
+      <c r="BJ201" s="30"/>
+    </row>
+    <row r="202" spans="1:62">
+      <c r="B202" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C202" s="29"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="29"/>
+      <c r="F202" s="29"/>
+      <c r="G202" s="29"/>
+      <c r="H202" s="29"/>
+      <c r="I202" s="29"/>
+      <c r="J202" s="29"/>
+      <c r="K202" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L202" s="29"/>
+      <c r="M202" s="29"/>
+      <c r="N202" s="29"/>
+      <c r="O202" s="29"/>
+      <c r="P202" s="29"/>
+      <c r="Q202" s="29"/>
+      <c r="R202" s="30"/>
+      <c r="S202" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="T202" s="29"/>
+      <c r="U202" s="29"/>
+      <c r="V202" s="29"/>
+      <c r="W202" s="29"/>
+      <c r="X202" s="29"/>
+      <c r="Y202" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z202" s="29"/>
+      <c r="AA202" s="29"/>
+      <c r="AB202" s="29"/>
+      <c r="AC202" s="29"/>
+      <c r="AD202" s="29"/>
+      <c r="AE202" s="29"/>
+      <c r="AF202" s="29"/>
+      <c r="AG202" s="29"/>
+      <c r="AH202" s="29"/>
+      <c r="AI202" s="29"/>
+      <c r="AJ202" s="29"/>
+      <c r="AK202" s="29"/>
+      <c r="AL202" s="29"/>
+      <c r="AM202" s="29"/>
+      <c r="AN202" s="29"/>
+      <c r="AO202" s="29"/>
+      <c r="AP202" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="AQ202" s="29"/>
+      <c r="AR202" s="29"/>
+      <c r="AS202" s="29"/>
+      <c r="AT202" s="29"/>
+      <c r="AU202" s="29"/>
+      <c r="AV202" s="29"/>
+      <c r="AW202" s="29"/>
+      <c r="AX202" s="29"/>
+      <c r="AY202" s="29"/>
+      <c r="AZ202" s="29"/>
+      <c r="BA202" s="29"/>
+      <c r="BB202" s="29"/>
+      <c r="BC202" s="29"/>
+      <c r="BD202" s="29"/>
+      <c r="BE202" s="29"/>
+      <c r="BF202" s="29"/>
+      <c r="BG202" s="29"/>
+      <c r="BH202" s="29"/>
+      <c r="BI202" s="29"/>
+      <c r="BJ202" s="30"/>
+    </row>
+    <row r="203" spans="1:62">
+      <c r="B203" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C203" s="29"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="29"/>
+      <c r="F203" s="29"/>
+      <c r="G203" s="29"/>
+      <c r="H203" s="29"/>
+      <c r="I203" s="29"/>
+      <c r="J203" s="29"/>
+      <c r="K203" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L203" s="29"/>
+      <c r="M203" s="29"/>
+      <c r="N203" s="29"/>
+      <c r="O203" s="29"/>
+      <c r="P203" s="29"/>
+      <c r="Q203" s="29"/>
+      <c r="R203" s="30"/>
+      <c r="S203" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="T203" s="29"/>
+      <c r="U203" s="29"/>
+      <c r="V203" s="29"/>
+      <c r="W203" s="29"/>
+      <c r="X203" s="29"/>
+      <c r="Y203" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z203" s="29"/>
+      <c r="AA203" s="29"/>
+      <c r="AB203" s="29"/>
+      <c r="AC203" s="29"/>
+      <c r="AD203" s="29"/>
+      <c r="AE203" s="29"/>
+      <c r="AF203" s="29"/>
+      <c r="AG203" s="29"/>
+      <c r="AH203" s="29"/>
+      <c r="AI203" s="29"/>
+      <c r="AJ203" s="29"/>
+      <c r="AK203" s="29"/>
+      <c r="AL203" s="29"/>
+      <c r="AM203" s="29"/>
+      <c r="AN203" s="29"/>
+      <c r="AO203" s="29"/>
+      <c r="AP203" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="AQ203" s="29"/>
+      <c r="AR203" s="29"/>
+      <c r="AS203" s="29"/>
+      <c r="AT203" s="29"/>
+      <c r="AU203" s="29"/>
+      <c r="AV203" s="29"/>
+      <c r="AW203" s="29"/>
+      <c r="AX203" s="29"/>
+      <c r="AY203" s="29"/>
+      <c r="AZ203" s="29"/>
+      <c r="BA203" s="29"/>
+      <c r="BB203" s="29"/>
+      <c r="BC203" s="29"/>
+      <c r="BD203" s="29"/>
+      <c r="BE203" s="29"/>
+      <c r="BF203" s="29"/>
+      <c r="BG203" s="29"/>
+      <c r="BH203" s="29"/>
+      <c r="BI203" s="29"/>
+      <c r="BJ203" s="30"/>
+    </row>
+    <row r="204" spans="1:62">
+      <c r="B204" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="C204" s="40"/>
+      <c r="D204" s="40"/>
+      <c r="E204" s="40"/>
+      <c r="F204" s="40"/>
+      <c r="G204" s="40"/>
+      <c r="H204" s="40"/>
+      <c r="I204" s="40"/>
+      <c r="J204" s="40"/>
+      <c r="K204" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="L204" s="40"/>
+      <c r="M204" s="40"/>
+      <c r="N204" s="40"/>
+      <c r="O204" s="40"/>
+      <c r="P204" s="40"/>
+      <c r="Q204" s="40"/>
+      <c r="R204" s="42"/>
+      <c r="S204" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="T204" s="40"/>
+      <c r="U204" s="40"/>
+      <c r="V204" s="40"/>
+      <c r="W204" s="40"/>
+      <c r="X204" s="40"/>
+      <c r="Y204" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z204" s="40"/>
+      <c r="AA204" s="40"/>
+      <c r="AB204" s="40"/>
+      <c r="AC204" s="40"/>
+      <c r="AD204" s="40"/>
+      <c r="AE204" s="40"/>
+      <c r="AF204" s="40"/>
+      <c r="AG204" s="40"/>
+      <c r="AH204" s="40"/>
+      <c r="AI204" s="40"/>
+      <c r="AJ204" s="40"/>
+      <c r="AK204" s="40"/>
+      <c r="AL204" s="40"/>
+      <c r="AM204" s="40"/>
+      <c r="AN204" s="40"/>
+      <c r="AO204" s="40"/>
+      <c r="AP204" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="AQ204" s="40"/>
+      <c r="AR204" s="40"/>
+      <c r="AS204" s="40"/>
+      <c r="AT204" s="40"/>
+      <c r="AU204" s="40"/>
+      <c r="AV204" s="40"/>
+      <c r="AW204" s="40"/>
+      <c r="AX204" s="40"/>
+      <c r="AY204" s="40"/>
+      <c r="AZ204" s="40"/>
+      <c r="BA204" s="40"/>
+      <c r="BB204" s="40"/>
+      <c r="BC204" s="40"/>
+      <c r="BD204" s="40"/>
+      <c r="BE204" s="40"/>
+      <c r="BF204" s="40"/>
+      <c r="BG204" s="40"/>
+      <c r="BH204" s="40"/>
+      <c r="BI204" s="40"/>
+      <c r="BJ204" s="42"/>
+    </row>
+    <row r="206" spans="1:62">
+      <c r="B206" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="207" spans="1:62">
+      <c r="B207" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="208" spans="1:62">
+      <c r="B208" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12238,47 +13253,47 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -12296,7 +13311,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -12314,7 +13329,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -12330,7 +13345,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="9"/>
       <c r="Q14" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -12352,7 +13367,7 @@
     <row r="16" spans="1:17">
       <c r="B16" s="10"/>
       <c r="C16" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -12386,7 +13401,7 @@
     <row r="18" spans="2:15">
       <c r="B18" s="10"/>
       <c r="C18" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -12456,7 +13471,7 @@
     <row r="22" spans="2:15">
       <c r="B22" s="10"/>
       <c r="C22" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -12543,7 +13558,7 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="2:15">
@@ -12689,7 +13704,7 @@
     <row r="38" spans="2:15">
       <c r="B38" s="10"/>
       <c r="C38" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>

--- a/実装指針及び実装ガイド.xlsx
+++ b/実装指針及び実装ガイド.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CBC6DE-7651-4B93-B2C2-E5BAEF879766}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8875682-3D72-47A7-A794-0F532056B873}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="348">
   <si>
     <t>■本ドキュメントの目的</t>
     <rPh sb="1" eb="2">
@@ -3370,6 +3370,34 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計書レビュー途中で気付いたのですが、同じフォーム名で定義しているような気がします。</t>
+  </si>
+  <si>
+    <t>formは画面毎に別クラスで定義したほうが良いと思いますのでご注意ください。</t>
+  </si>
+  <si>
+    <t>例えばUserForm1個ではなく、UserRegisterFormやUserDeleteFormといった具合です。</t>
+  </si>
+  <si>
+    <t>UserForm1つでユーザー系全部やることも可能かもしれませんが、</t>
+  </si>
+  <si>
+    <t>formは画面と1対1に対応するべきものというのが私の考えなので、これは守ってください。</t>
+  </si>
+  <si>
+    <t>2019/06/09追記（メールで送ったものと同一）</t>
+    <rPh sb="10" eb="12">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウイツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3783,7 +3811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3802,33 +3830,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3847,6 +3848,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4268,31 +4297,31 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
     </row>
     <row r="5" spans="1:25">
       <c r="B5" s="2" t="s">
@@ -4355,420 +4384,402 @@
       </c>
     </row>
     <row r="19" spans="1:42">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
     </row>
     <row r="20" spans="1:42">
-      <c r="B20" s="20">
+      <c r="B20" s="43">
         <f>ROW()-19</f>
         <v>1</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21" t="s">
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="21"/>
-      <c r="AN20" s="21"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="21"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
     </row>
     <row r="21" spans="1:42">
-      <c r="B21" s="22">
+      <c r="B21" s="38">
         <f t="shared" ref="B21:B26" si="0">ROW()-19</f>
         <v>2</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="23"/>
-      <c r="AN21" s="23"/>
-      <c r="AO21" s="23"/>
-      <c r="AP21" s="23"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
     </row>
     <row r="22" spans="1:42" ht="99.95" customHeight="1">
-      <c r="B22" s="22">
+      <c r="B22" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="23"/>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="23"/>
-      <c r="AN22" s="23"/>
-      <c r="AO22" s="23"/>
-      <c r="AP22" s="23"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
     </row>
     <row r="23" spans="1:42" ht="39.950000000000003" customHeight="1">
-      <c r="B23" s="22">
+      <c r="B23" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
     </row>
     <row r="24" spans="1:42" ht="80.099999999999994" customHeight="1">
-      <c r="B24" s="22">
+      <c r="B24" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
     </row>
     <row r="25" spans="1:42">
-      <c r="B25" s="22">
+      <c r="B25" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
     </row>
     <row r="26" spans="1:42">
-      <c r="B26" s="25">
+      <c r="B26" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AP26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AP25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="K23:AP23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AP24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:AP21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:AP22"/>
     <mergeCell ref="C4:Y4"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:J19"/>
@@ -4776,6 +4787,24 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="K20:AP20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:AP21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:AP22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:AP23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AP24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AP26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AP25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4846,9 +4875,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7C45E8-4564-411B-BA43-64028D5C4BEF}">
-  <dimension ref="A1:AS147"/>
+  <dimension ref="A1:AS155"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
@@ -7279,7 +7310,7 @@
       <c r="S80" s="8"/>
       <c r="T80" s="9"/>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:20">
       <c r="B81" s="10"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8" t="s">
@@ -7302,7 +7333,7 @@
       <c r="S81" s="8"/>
       <c r="T81" s="9"/>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:20">
       <c r="B82" s="10"/>
       <c r="C82" s="8" t="s">
         <v>62</v>
@@ -7325,7 +7356,7 @@
       <c r="S82" s="8"/>
       <c r="T82" s="9"/>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:20">
       <c r="B83" s="10" t="s">
         <v>62</v>
       </c>
@@ -7348,7 +7379,7 @@
       <c r="S83" s="8"/>
       <c r="T83" s="9"/>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:20">
       <c r="B84" s="12"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -7369,229 +7400,85 @@
       <c r="S84" s="13"/>
       <c r="T84" s="14"/>
     </row>
-    <row r="86" spans="1:31">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:20" s="5" customFormat="1">
+      <c r="A86" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+    </row>
+    <row r="87" spans="1:20" s="8" customFormat="1">
+      <c r="A87" s="45"/>
+      <c r="B87" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C87" s="45"/>
+    </row>
+    <row r="88" spans="1:20" s="8" customFormat="1">
+      <c r="A88" s="45"/>
+      <c r="B88" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" s="45"/>
+    </row>
+    <row r="89" spans="1:20" s="8" customFormat="1">
+      <c r="A89" s="45"/>
+      <c r="B89" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C89" s="45"/>
+    </row>
+    <row r="90" spans="1:20" s="8" customFormat="1">
+      <c r="A90" s="45"/>
+      <c r="B90" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C90" s="45"/>
+    </row>
+    <row r="91" spans="1:20" s="8" customFormat="1">
+      <c r="A91" s="45"/>
+      <c r="B91" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C91" s="45"/>
+    </row>
+    <row r="92" spans="1:20" s="13" customFormat="1"/>
+    <row r="94" spans="1:20">
+      <c r="A94" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:31">
-      <c r="B87" s="2" t="s">
+    <row r="95" spans="1:20">
+      <c r="B95" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:31">
-      <c r="B89" s="15" t="s">
+    <row r="97" spans="2:31">
+      <c r="B97" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="6"/>
-    </row>
-    <row r="90" spans="1:31">
-      <c r="B90" s="10"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="9"/>
-    </row>
-    <row r="91" spans="1:31">
-      <c r="B91" s="10"/>
-      <c r="C91" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="9"/>
-    </row>
-    <row r="92" spans="1:31">
-      <c r="B92" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="9"/>
-    </row>
-    <row r="93" spans="1:31">
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="14"/>
-    </row>
-    <row r="95" spans="1:31">
-      <c r="B95" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
-      <c r="AB95" s="5"/>
-      <c r="AC95" s="6"/>
-      <c r="AE95" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31">
-      <c r="B96" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="8"/>
-      <c r="X96" s="8"/>
-      <c r="Y96" s="8"/>
-      <c r="Z96" s="8"/>
-      <c r="AA96" s="8"/>
-      <c r="AB96" s="8"/>
-      <c r="AC96" s="9"/>
-    </row>
-    <row r="97" spans="2:31">
-      <c r="B97" s="10"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="8"/>
-      <c r="X97" s="8"/>
-      <c r="Y97" s="8"/>
-      <c r="Z97" s="8"/>
-      <c r="AA97" s="8"/>
-      <c r="AB97" s="8"/>
-      <c r="AC97" s="9"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="6"/>
     </row>
     <row r="98" spans="2:31">
       <c r="B98" s="10"/>
-      <c r="C98" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -7608,24 +7495,12 @@
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="8"/>
-      <c r="X98" s="8"/>
-      <c r="Y98" s="8"/>
-      <c r="Z98" s="8"/>
-      <c r="AA98" s="8"/>
-      <c r="AB98" s="8"/>
-      <c r="AC98" s="9"/>
-      <c r="AE98" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="T98" s="9"/>
     </row>
     <row r="99" spans="2:31">
       <c r="B99" s="10"/>
-      <c r="C99" s="11" t="s">
-        <v>115</v>
+      <c r="C99" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -7643,19 +7518,12 @@
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="8"/>
-      <c r="X99" s="8"/>
-      <c r="Y99" s="8"/>
-      <c r="Z99" s="8"/>
-      <c r="AA99" s="8"/>
-      <c r="AB99" s="8"/>
-      <c r="AC99" s="9"/>
+      <c r="T99" s="9"/>
     </row>
     <row r="100" spans="2:31">
-      <c r="B100" s="10"/>
+      <c r="B100" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -7673,120 +7541,70 @@
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
-      <c r="U100" s="8"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="8"/>
-      <c r="X100" s="8"/>
-      <c r="Y100" s="8"/>
-      <c r="Z100" s="8"/>
-      <c r="AA100" s="8"/>
-      <c r="AB100" s="8"/>
-      <c r="AC100" s="9"/>
+      <c r="T100" s="9"/>
     </row>
     <row r="101" spans="2:31">
-      <c r="B101" s="10"/>
-      <c r="C101" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="8"/>
-      <c r="X101" s="8"/>
-      <c r="Y101" s="8"/>
-      <c r="Z101" s="8"/>
-      <c r="AA101" s="8"/>
-      <c r="AB101" s="8"/>
-      <c r="AC101" s="9"/>
-    </row>
-    <row r="102" spans="2:31">
-      <c r="B102" s="10"/>
-      <c r="C102" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="8"/>
-      <c r="V102" s="8"/>
-      <c r="W102" s="8"/>
-      <c r="X102" s="8"/>
-      <c r="Y102" s="8"/>
-      <c r="Z102" s="8"/>
-      <c r="AA102" s="8"/>
-      <c r="AB102" s="8"/>
-      <c r="AC102" s="9"/>
-      <c r="AE102" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="14"/>
     </row>
     <row r="103" spans="2:31">
-      <c r="B103" s="10"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="8"/>
-      <c r="X103" s="8"/>
-      <c r="Y103" s="8"/>
-      <c r="Z103" s="8"/>
-      <c r="AA103" s="8"/>
-      <c r="AB103" s="8"/>
-      <c r="AC103" s="9"/>
+      <c r="B103" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="6"/>
+      <c r="AE103" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="104" spans="2:31">
-      <c r="B104" s="10"/>
+      <c r="B104" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="C104" s="8"/>
-      <c r="D104" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -7845,10 +7663,10 @@
     </row>
     <row r="106" spans="2:31">
       <c r="B106" s="10"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="C106" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
@@ -7874,14 +7692,17 @@
       <c r="AA106" s="8"/>
       <c r="AB106" s="8"/>
       <c r="AC106" s="9"/>
+      <c r="AE106" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="107" spans="2:31">
       <c r="B107" s="10"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="8" t="s">
-        <v>119</v>
-      </c>
+      <c r="C107" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -7910,9 +7731,7 @@
     <row r="108" spans="2:31">
       <c r="B108" s="10"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="11" t="s">
-        <v>120</v>
-      </c>
+      <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
@@ -7938,17 +7757,14 @@
       <c r="AA108" s="8"/>
       <c r="AB108" s="8"/>
       <c r="AC108" s="9"/>
-      <c r="AE108" s="2" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="109" spans="2:31">
       <c r="B109" s="10"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="C109" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -7976,11 +7792,11 @@
     </row>
     <row r="110" spans="2:31">
       <c r="B110" s="10"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="C110" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -8006,15 +7822,13 @@
       <c r="AB110" s="8"/>
       <c r="AC110" s="9"/>
       <c r="AE110" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="2:31">
       <c r="B111" s="10"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
@@ -8043,10 +7857,10 @@
     </row>
     <row r="112" spans="2:31">
       <c r="B112" s="10"/>
-      <c r="C112" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
@@ -8073,80 +7887,239 @@
       <c r="AB112" s="8"/>
       <c r="AC112" s="9"/>
     </row>
-    <row r="113" spans="1:29">
-      <c r="B113" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
-      <c r="O113" s="13"/>
-      <c r="P113" s="13"/>
-      <c r="Q113" s="13"/>
-      <c r="R113" s="13"/>
-      <c r="S113" s="13"/>
-      <c r="T113" s="13"/>
-      <c r="U113" s="13"/>
-      <c r="V113" s="13"/>
-      <c r="W113" s="13"/>
-      <c r="X113" s="13"/>
-      <c r="Y113" s="13"/>
-      <c r="Z113" s="13"/>
-      <c r="AA113" s="13"/>
-      <c r="AB113" s="13"/>
-      <c r="AC113" s="14"/>
-    </row>
-    <row r="115" spans="1:29">
-      <c r="A115" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29">
-      <c r="B116" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29">
-      <c r="B117" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29">
-      <c r="B119" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="6"/>
-      <c r="R119" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29">
-      <c r="B120" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C120" s="8"/>
+    <row r="113" spans="1:31">
+      <c r="B113" s="10"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="8"/>
+      <c r="X113" s="8"/>
+      <c r="Y113" s="8"/>
+      <c r="Z113" s="8"/>
+      <c r="AA113" s="8"/>
+      <c r="AB113" s="8"/>
+      <c r="AC113" s="9"/>
+    </row>
+    <row r="114" spans="1:31">
+      <c r="B114" s="10"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="8"/>
+      <c r="X114" s="8"/>
+      <c r="Y114" s="8"/>
+      <c r="Z114" s="8"/>
+      <c r="AA114" s="8"/>
+      <c r="AB114" s="8"/>
+      <c r="AC114" s="9"/>
+    </row>
+    <row r="115" spans="1:31">
+      <c r="B115" s="10"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="8"/>
+      <c r="T115" s="8"/>
+      <c r="U115" s="8"/>
+      <c r="V115" s="8"/>
+      <c r="W115" s="8"/>
+      <c r="X115" s="8"/>
+      <c r="Y115" s="8"/>
+      <c r="Z115" s="8"/>
+      <c r="AA115" s="8"/>
+      <c r="AB115" s="8"/>
+      <c r="AC115" s="9"/>
+    </row>
+    <row r="116" spans="1:31">
+      <c r="B116" s="10"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+      <c r="AB116" s="8"/>
+      <c r="AC116" s="9"/>
+      <c r="AE116" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31">
+      <c r="B117" s="10"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
+      <c r="U117" s="8"/>
+      <c r="V117" s="8"/>
+      <c r="W117" s="8"/>
+      <c r="X117" s="8"/>
+      <c r="Y117" s="8"/>
+      <c r="Z117" s="8"/>
+      <c r="AA117" s="8"/>
+      <c r="AB117" s="8"/>
+      <c r="AC117" s="9"/>
+    </row>
+    <row r="118" spans="1:31">
+      <c r="B118" s="10"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
+      <c r="U118" s="8"/>
+      <c r="V118" s="8"/>
+      <c r="W118" s="8"/>
+      <c r="X118" s="8"/>
+      <c r="Y118" s="8"/>
+      <c r="Z118" s="8"/>
+      <c r="AA118" s="8"/>
+      <c r="AB118" s="8"/>
+      <c r="AC118" s="9"/>
+      <c r="AE118" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31">
+      <c r="B119" s="10"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="8"/>
+      <c r="T119" s="8"/>
+      <c r="U119" s="8"/>
+      <c r="V119" s="8"/>
+      <c r="W119" s="8"/>
+      <c r="X119" s="8"/>
+      <c r="Y119" s="8"/>
+      <c r="Z119" s="8"/>
+      <c r="AA119" s="8"/>
+      <c r="AB119" s="8"/>
+      <c r="AC119" s="9"/>
+    </row>
+    <row r="120" spans="1:31">
+      <c r="B120" s="10"/>
+      <c r="C120" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
@@ -8159,141 +8132,131 @@
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
-      <c r="P120" s="9"/>
-    </row>
-    <row r="121" spans="1:29">
-      <c r="B121" s="10"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="9"/>
-    </row>
-    <row r="122" spans="1:29">
-      <c r="B122" s="10"/>
-      <c r="C122" s="8" t="s">
+      <c r="P120" s="8"/>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="8"/>
+      <c r="S120" s="8"/>
+      <c r="T120" s="8"/>
+      <c r="U120" s="8"/>
+      <c r="V120" s="8"/>
+      <c r="W120" s="8"/>
+      <c r="X120" s="8"/>
+      <c r="Y120" s="8"/>
+      <c r="Z120" s="8"/>
+      <c r="AA120" s="8"/>
+      <c r="AB120" s="8"/>
+      <c r="AC120" s="9"/>
+    </row>
+    <row r="121" spans="1:31">
+      <c r="B121" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="13"/>
+      <c r="O121" s="13"/>
+      <c r="P121" s="13"/>
+      <c r="Q121" s="13"/>
+      <c r="R121" s="13"/>
+      <c r="S121" s="13"/>
+      <c r="T121" s="13"/>
+      <c r="U121" s="13"/>
+      <c r="V121" s="13"/>
+      <c r="W121" s="13"/>
+      <c r="X121" s="13"/>
+      <c r="Y121" s="13"/>
+      <c r="Z121" s="13"/>
+      <c r="AA121" s="13"/>
+      <c r="AB121" s="13"/>
+      <c r="AC121" s="14"/>
+    </row>
+    <row r="123" spans="1:31">
+      <c r="A123" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31">
+      <c r="B124" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31">
+      <c r="B125" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31">
+      <c r="B127" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="6"/>
+      <c r="R127" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31">
+      <c r="B128" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="9"/>
+    </row>
+    <row r="129" spans="1:45">
+      <c r="B129" s="10"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="9"/>
+    </row>
+    <row r="130" spans="1:45">
+      <c r="B130" s="10"/>
+      <c r="C130" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="8"/>
-      <c r="P122" s="9"/>
-    </row>
-    <row r="123" spans="1:29">
-      <c r="B123" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="9"/>
-    </row>
-    <row r="124" spans="1:29">
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
-      <c r="M124" s="13"/>
-      <c r="N124" s="13"/>
-      <c r="O124" s="13"/>
-      <c r="P124" s="14"/>
-    </row>
-    <row r="126" spans="1:29">
-      <c r="A126" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29">
-      <c r="B127" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="2:45">
-      <c r="B129" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
-      <c r="O129" s="5"/>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
-      <c r="U129" s="5"/>
-      <c r="V129" s="5"/>
-      <c r="W129" s="5"/>
-      <c r="X129" s="5"/>
-      <c r="Y129" s="5"/>
-      <c r="Z129" s="5"/>
-      <c r="AA129" s="5"/>
-      <c r="AB129" s="5"/>
-      <c r="AC129" s="5"/>
-      <c r="AD129" s="5"/>
-      <c r="AE129" s="5"/>
-      <c r="AF129" s="5"/>
-      <c r="AG129" s="5"/>
-      <c r="AH129" s="5"/>
-      <c r="AI129" s="5"/>
-      <c r="AJ129" s="5"/>
-      <c r="AK129" s="5"/>
-      <c r="AL129" s="5"/>
-      <c r="AM129" s="5"/>
-      <c r="AN129" s="5"/>
-      <c r="AO129" s="5"/>
-      <c r="AP129" s="5"/>
-      <c r="AQ129" s="6"/>
-    </row>
-    <row r="130" spans="2:45">
-      <c r="B130" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
@@ -8306,38 +8269,11 @@
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
-      <c r="P130" s="8"/>
-      <c r="Q130" s="8"/>
-      <c r="R130" s="8"/>
-      <c r="S130" s="8"/>
-      <c r="T130" s="8"/>
-      <c r="U130" s="8"/>
-      <c r="V130" s="8"/>
-      <c r="W130" s="8"/>
-      <c r="X130" s="8"/>
-      <c r="Y130" s="8"/>
-      <c r="Z130" s="8"/>
-      <c r="AA130" s="8"/>
-      <c r="AB130" s="8"/>
-      <c r="AC130" s="8"/>
-      <c r="AD130" s="8"/>
-      <c r="AE130" s="8"/>
-      <c r="AF130" s="8"/>
-      <c r="AG130" s="8"/>
-      <c r="AH130" s="8"/>
-      <c r="AI130" s="8"/>
-      <c r="AJ130" s="8"/>
-      <c r="AK130" s="8"/>
-      <c r="AL130" s="8"/>
-      <c r="AM130" s="8"/>
-      <c r="AN130" s="8"/>
-      <c r="AO130" s="8"/>
-      <c r="AP130" s="8"/>
-      <c r="AQ130" s="9"/>
-    </row>
-    <row r="131" spans="2:45">
+      <c r="P130" s="9"/>
+    </row>
+    <row r="131" spans="1:45">
       <c r="B131" s="10" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -8352,323 +8288,84 @@
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
-      <c r="S131" s="8"/>
-      <c r="T131" s="8"/>
-      <c r="U131" s="8"/>
-      <c r="V131" s="8"/>
-      <c r="W131" s="8"/>
-      <c r="X131" s="8"/>
-      <c r="Y131" s="8"/>
-      <c r="Z131" s="8"/>
-      <c r="AA131" s="8"/>
-      <c r="AB131" s="8"/>
-      <c r="AC131" s="8"/>
-      <c r="AD131" s="8"/>
-      <c r="AE131" s="8"/>
-      <c r="AF131" s="8"/>
-      <c r="AG131" s="8"/>
-      <c r="AH131" s="8"/>
-      <c r="AI131" s="8"/>
-      <c r="AJ131" s="8"/>
-      <c r="AK131" s="8"/>
-      <c r="AL131" s="8"/>
-      <c r="AM131" s="8"/>
-      <c r="AN131" s="8"/>
-      <c r="AO131" s="8"/>
-      <c r="AP131" s="8"/>
-      <c r="AQ131" s="9"/>
-      <c r="AS131" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="2:45">
-      <c r="B132" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-      <c r="Q132" s="8"/>
-      <c r="R132" s="8"/>
-      <c r="S132" s="8"/>
-      <c r="T132" s="8"/>
-      <c r="U132" s="8"/>
-      <c r="V132" s="8"/>
-      <c r="W132" s="8"/>
-      <c r="X132" s="8"/>
-      <c r="Y132" s="8"/>
-      <c r="Z132" s="8"/>
-      <c r="AA132" s="8"/>
-      <c r="AB132" s="8"/>
-      <c r="AC132" s="8"/>
-      <c r="AD132" s="8"/>
-      <c r="AE132" s="8"/>
-      <c r="AF132" s="8"/>
-      <c r="AG132" s="8"/>
-      <c r="AH132" s="8"/>
-      <c r="AI132" s="8"/>
-      <c r="AJ132" s="8"/>
-      <c r="AK132" s="8"/>
-      <c r="AL132" s="8"/>
-      <c r="AM132" s="8"/>
-      <c r="AN132" s="8"/>
-      <c r="AO132" s="8"/>
-      <c r="AP132" s="8"/>
-      <c r="AQ132" s="9"/>
-      <c r="AS132" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="133" spans="2:45">
-      <c r="B133" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="8"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="8"/>
-      <c r="Q133" s="8"/>
-      <c r="R133" s="8"/>
-      <c r="S133" s="8"/>
-      <c r="T133" s="8"/>
-      <c r="U133" s="8"/>
-      <c r="V133" s="8"/>
-      <c r="W133" s="8"/>
-      <c r="X133" s="8"/>
-      <c r="Y133" s="8"/>
-      <c r="Z133" s="8"/>
-      <c r="AA133" s="8"/>
-      <c r="AB133" s="8"/>
-      <c r="AC133" s="8"/>
-      <c r="AD133" s="8"/>
-      <c r="AE133" s="8"/>
-      <c r="AF133" s="8"/>
-      <c r="AG133" s="8"/>
-      <c r="AH133" s="8"/>
-      <c r="AI133" s="8"/>
-      <c r="AJ133" s="8"/>
-      <c r="AK133" s="8"/>
-      <c r="AL133" s="8"/>
-      <c r="AM133" s="8"/>
-      <c r="AN133" s="8"/>
-      <c r="AO133" s="8"/>
-      <c r="AP133" s="8"/>
-      <c r="AQ133" s="9"/>
-      <c r="AS133" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="2:45">
-      <c r="B134" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="8"/>
-      <c r="P134" s="8"/>
-      <c r="Q134" s="8"/>
-      <c r="R134" s="8"/>
-      <c r="S134" s="8"/>
-      <c r="T134" s="8"/>
-      <c r="U134" s="8"/>
-      <c r="V134" s="8"/>
-      <c r="W134" s="8"/>
-      <c r="X134" s="8"/>
-      <c r="Y134" s="8"/>
-      <c r="Z134" s="8"/>
-      <c r="AA134" s="8"/>
-      <c r="AB134" s="8"/>
-      <c r="AC134" s="8"/>
-      <c r="AD134" s="8"/>
-      <c r="AE134" s="8"/>
-      <c r="AF134" s="8"/>
-      <c r="AG134" s="8"/>
-      <c r="AH134" s="8"/>
-      <c r="AI134" s="8"/>
-      <c r="AJ134" s="8"/>
-      <c r="AK134" s="8"/>
-      <c r="AL134" s="8"/>
-      <c r="AM134" s="8"/>
-      <c r="AN134" s="8"/>
-      <c r="AO134" s="8"/>
-      <c r="AP134" s="8"/>
-      <c r="AQ134" s="9"/>
-    </row>
-    <row r="135" spans="2:45">
-      <c r="B135" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
-      <c r="P135" s="8"/>
-      <c r="Q135" s="8"/>
-      <c r="R135" s="8"/>
-      <c r="S135" s="8"/>
-      <c r="T135" s="8"/>
-      <c r="U135" s="8"/>
-      <c r="V135" s="8"/>
-      <c r="W135" s="8"/>
-      <c r="X135" s="8"/>
-      <c r="Y135" s="8"/>
-      <c r="Z135" s="8"/>
-      <c r="AA135" s="8"/>
-      <c r="AB135" s="8"/>
-      <c r="AC135" s="8"/>
-      <c r="AD135" s="8"/>
-      <c r="AE135" s="8"/>
-      <c r="AF135" s="8"/>
-      <c r="AG135" s="8"/>
-      <c r="AH135" s="8"/>
-      <c r="AI135" s="8"/>
-      <c r="AJ135" s="8"/>
-      <c r="AK135" s="8"/>
-      <c r="AL135" s="8"/>
-      <c r="AM135" s="8"/>
-      <c r="AN135" s="8"/>
-      <c r="AO135" s="8"/>
-      <c r="AP135" s="8"/>
-      <c r="AQ135" s="9"/>
-    </row>
-    <row r="136" spans="2:45">
-      <c r="B136" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
-      <c r="O136" s="8"/>
-      <c r="P136" s="8"/>
-      <c r="Q136" s="8"/>
-      <c r="R136" s="8"/>
-      <c r="S136" s="8"/>
-      <c r="T136" s="8"/>
-      <c r="U136" s="8"/>
-      <c r="V136" s="8"/>
-      <c r="W136" s="8"/>
-      <c r="X136" s="8"/>
-      <c r="Y136" s="8"/>
-      <c r="Z136" s="8"/>
-      <c r="AA136" s="8"/>
-      <c r="AB136" s="8"/>
-      <c r="AC136" s="8"/>
-      <c r="AD136" s="8"/>
-      <c r="AE136" s="8"/>
-      <c r="AF136" s="8"/>
-      <c r="AG136" s="8"/>
-      <c r="AH136" s="8"/>
-      <c r="AI136" s="8"/>
-      <c r="AJ136" s="8"/>
-      <c r="AK136" s="8"/>
-      <c r="AL136" s="8"/>
-      <c r="AM136" s="8"/>
-      <c r="AN136" s="8"/>
-      <c r="AO136" s="8"/>
-      <c r="AP136" s="8"/>
-      <c r="AQ136" s="9"/>
-    </row>
-    <row r="137" spans="2:45">
-      <c r="B137" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
-      <c r="O137" s="8"/>
-      <c r="P137" s="8"/>
-      <c r="Q137" s="8"/>
-      <c r="R137" s="8"/>
-      <c r="S137" s="8"/>
-      <c r="T137" s="8"/>
-      <c r="U137" s="8"/>
-      <c r="V137" s="8"/>
-      <c r="W137" s="8"/>
-      <c r="X137" s="8"/>
-      <c r="Y137" s="8"/>
-      <c r="Z137" s="8"/>
-      <c r="AA137" s="8"/>
-      <c r="AB137" s="8"/>
-      <c r="AC137" s="8"/>
-      <c r="AD137" s="8"/>
-      <c r="AE137" s="8"/>
-      <c r="AF137" s="8"/>
-      <c r="AG137" s="8"/>
-      <c r="AH137" s="8"/>
-      <c r="AI137" s="8"/>
-      <c r="AJ137" s="8"/>
-      <c r="AK137" s="8"/>
-      <c r="AL137" s="8"/>
-      <c r="AM137" s="8"/>
-      <c r="AN137" s="8"/>
-      <c r="AO137" s="8"/>
-      <c r="AP137" s="8"/>
-      <c r="AQ137" s="9"/>
-    </row>
-    <row r="138" spans="2:45">
+      <c r="P131" s="9"/>
+    </row>
+    <row r="132" spans="1:45">
+      <c r="B132" s="12"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
+      <c r="O132" s="13"/>
+      <c r="P132" s="14"/>
+    </row>
+    <row r="134" spans="1:45">
+      <c r="A134" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:45">
+      <c r="B135" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:45">
+      <c r="B137" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+      <c r="W137" s="5"/>
+      <c r="X137" s="5"/>
+      <c r="Y137" s="5"/>
+      <c r="Z137" s="5"/>
+      <c r="AA137" s="5"/>
+      <c r="AB137" s="5"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="5"/>
+      <c r="AE137" s="5"/>
+      <c r="AF137" s="5"/>
+      <c r="AG137" s="5"/>
+      <c r="AH137" s="5"/>
+      <c r="AI137" s="5"/>
+      <c r="AJ137" s="5"/>
+      <c r="AK137" s="5"/>
+      <c r="AL137" s="5"/>
+      <c r="AM137" s="5"/>
+      <c r="AN137" s="5"/>
+      <c r="AO137" s="5"/>
+      <c r="AP137" s="5"/>
+      <c r="AQ137" s="6"/>
+    </row>
+    <row r="138" spans="1:45">
       <c r="B138" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -8712,9 +8409,9 @@
       <c r="AP138" s="8"/>
       <c r="AQ138" s="9"/>
     </row>
-    <row r="139" spans="2:45">
+    <row r="139" spans="1:45">
       <c r="B139" s="10" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -8757,13 +8454,16 @@
       <c r="AO139" s="8"/>
       <c r="AP139" s="8"/>
       <c r="AQ139" s="9"/>
-    </row>
-    <row r="140" spans="2:45">
-      <c r="B140" s="7" t="s">
-        <v>148</v>
+      <c r="AS139" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="1:45">
+      <c r="B140" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C140" s="8"/>
-      <c r="D140" s="11"/>
+      <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
@@ -8804,15 +8504,15 @@
       <c r="AP140" s="8"/>
       <c r="AQ140" s="9"/>
       <c r="AS140" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="2:45">
-      <c r="B141" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:45">
+      <c r="B141" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="C141" s="8"/>
-      <c r="D141" s="11"/>
+      <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
@@ -8852,13 +8552,16 @@
       <c r="AO141" s="8"/>
       <c r="AP141" s="8"/>
       <c r="AQ141" s="9"/>
-    </row>
-    <row r="142" spans="2:45">
-      <c r="B142" s="7" t="s">
-        <v>150</v>
+      <c r="AS141" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:45">
+      <c r="B142" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="C142" s="8"/>
-      <c r="D142" s="11"/>
+      <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
@@ -8899,12 +8602,12 @@
       <c r="AP142" s="8"/>
       <c r="AQ142" s="9"/>
     </row>
-    <row r="143" spans="2:45">
-      <c r="B143" s="7" t="s">
-        <v>151</v>
+    <row r="143" spans="1:45">
+      <c r="B143" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="C143" s="8"/>
-      <c r="D143" s="11"/>
+      <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
@@ -8945,9 +8648,9 @@
       <c r="AP143" s="8"/>
       <c r="AQ143" s="9"/>
     </row>
-    <row r="144" spans="2:45">
+    <row r="144" spans="1:45">
       <c r="B144" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -8991,9 +8694,9 @@
       <c r="AP144" s="8"/>
       <c r="AQ144" s="9"/>
     </row>
-    <row r="145" spans="2:43">
+    <row r="145" spans="2:45">
       <c r="B145" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -9037,9 +8740,9 @@
       <c r="AP145" s="8"/>
       <c r="AQ145" s="9"/>
     </row>
-    <row r="146" spans="2:43">
+    <row r="146" spans="2:45">
       <c r="B146" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -9083,53 +8786,425 @@
       <c r="AP146" s="8"/>
       <c r="AQ146" s="9"/>
     </row>
-    <row r="147" spans="2:43">
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="13"/>
-      <c r="K147" s="13"/>
-      <c r="L147" s="13"/>
-      <c r="M147" s="13"/>
-      <c r="N147" s="13"/>
-      <c r="O147" s="13"/>
-      <c r="P147" s="13"/>
-      <c r="Q147" s="13"/>
-      <c r="R147" s="13"/>
-      <c r="S147" s="13"/>
-      <c r="T147" s="13"/>
-      <c r="U147" s="13"/>
-      <c r="V147" s="13"/>
-      <c r="W147" s="13"/>
-      <c r="X147" s="13"/>
-      <c r="Y147" s="13"/>
-      <c r="Z147" s="13"/>
-      <c r="AA147" s="13"/>
-      <c r="AB147" s="13"/>
-      <c r="AC147" s="13"/>
-      <c r="AD147" s="13"/>
-      <c r="AE147" s="13"/>
-      <c r="AF147" s="13"/>
-      <c r="AG147" s="13"/>
-      <c r="AH147" s="13"/>
-      <c r="AI147" s="13"/>
-      <c r="AJ147" s="13"/>
-      <c r="AK147" s="13"/>
-      <c r="AL147" s="13"/>
-      <c r="AM147" s="13"/>
-      <c r="AN147" s="13"/>
-      <c r="AO147" s="13"/>
-      <c r="AP147" s="13"/>
-      <c r="AQ147" s="14"/>
+    <row r="147" spans="2:45">
+      <c r="B147" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="8"/>
+      <c r="R147" s="8"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="8"/>
+      <c r="U147" s="8"/>
+      <c r="V147" s="8"/>
+      <c r="W147" s="8"/>
+      <c r="X147" s="8"/>
+      <c r="Y147" s="8"/>
+      <c r="Z147" s="8"/>
+      <c r="AA147" s="8"/>
+      <c r="AB147" s="8"/>
+      <c r="AC147" s="8"/>
+      <c r="AD147" s="8"/>
+      <c r="AE147" s="8"/>
+      <c r="AF147" s="8"/>
+      <c r="AG147" s="8"/>
+      <c r="AH147" s="8"/>
+      <c r="AI147" s="8"/>
+      <c r="AJ147" s="8"/>
+      <c r="AK147" s="8"/>
+      <c r="AL147" s="8"/>
+      <c r="AM147" s="8"/>
+      <c r="AN147" s="8"/>
+      <c r="AO147" s="8"/>
+      <c r="AP147" s="8"/>
+      <c r="AQ147" s="9"/>
+    </row>
+    <row r="148" spans="2:45">
+      <c r="B148" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+      <c r="U148" s="8"/>
+      <c r="V148" s="8"/>
+      <c r="W148" s="8"/>
+      <c r="X148" s="8"/>
+      <c r="Y148" s="8"/>
+      <c r="Z148" s="8"/>
+      <c r="AA148" s="8"/>
+      <c r="AB148" s="8"/>
+      <c r="AC148" s="8"/>
+      <c r="AD148" s="8"/>
+      <c r="AE148" s="8"/>
+      <c r="AF148" s="8"/>
+      <c r="AG148" s="8"/>
+      <c r="AH148" s="8"/>
+      <c r="AI148" s="8"/>
+      <c r="AJ148" s="8"/>
+      <c r="AK148" s="8"/>
+      <c r="AL148" s="8"/>
+      <c r="AM148" s="8"/>
+      <c r="AN148" s="8"/>
+      <c r="AO148" s="8"/>
+      <c r="AP148" s="8"/>
+      <c r="AQ148" s="9"/>
+      <c r="AS148" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="2:45">
+      <c r="B149" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="8"/>
+      <c r="R149" s="8"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="8"/>
+      <c r="U149" s="8"/>
+      <c r="V149" s="8"/>
+      <c r="W149" s="8"/>
+      <c r="X149" s="8"/>
+      <c r="Y149" s="8"/>
+      <c r="Z149" s="8"/>
+      <c r="AA149" s="8"/>
+      <c r="AB149" s="8"/>
+      <c r="AC149" s="8"/>
+      <c r="AD149" s="8"/>
+      <c r="AE149" s="8"/>
+      <c r="AF149" s="8"/>
+      <c r="AG149" s="8"/>
+      <c r="AH149" s="8"/>
+      <c r="AI149" s="8"/>
+      <c r="AJ149" s="8"/>
+      <c r="AK149" s="8"/>
+      <c r="AL149" s="8"/>
+      <c r="AM149" s="8"/>
+      <c r="AN149" s="8"/>
+      <c r="AO149" s="8"/>
+      <c r="AP149" s="8"/>
+      <c r="AQ149" s="9"/>
+    </row>
+    <row r="150" spans="2:45">
+      <c r="B150" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="8"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+      <c r="Q150" s="8"/>
+      <c r="R150" s="8"/>
+      <c r="S150" s="8"/>
+      <c r="T150" s="8"/>
+      <c r="U150" s="8"/>
+      <c r="V150" s="8"/>
+      <c r="W150" s="8"/>
+      <c r="X150" s="8"/>
+      <c r="Y150" s="8"/>
+      <c r="Z150" s="8"/>
+      <c r="AA150" s="8"/>
+      <c r="AB150" s="8"/>
+      <c r="AC150" s="8"/>
+      <c r="AD150" s="8"/>
+      <c r="AE150" s="8"/>
+      <c r="AF150" s="8"/>
+      <c r="AG150" s="8"/>
+      <c r="AH150" s="8"/>
+      <c r="AI150" s="8"/>
+      <c r="AJ150" s="8"/>
+      <c r="AK150" s="8"/>
+      <c r="AL150" s="8"/>
+      <c r="AM150" s="8"/>
+      <c r="AN150" s="8"/>
+      <c r="AO150" s="8"/>
+      <c r="AP150" s="8"/>
+      <c r="AQ150" s="9"/>
+    </row>
+    <row r="151" spans="2:45">
+      <c r="B151" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+      <c r="Q151" s="8"/>
+      <c r="R151" s="8"/>
+      <c r="S151" s="8"/>
+      <c r="T151" s="8"/>
+      <c r="U151" s="8"/>
+      <c r="V151" s="8"/>
+      <c r="W151" s="8"/>
+      <c r="X151" s="8"/>
+      <c r="Y151" s="8"/>
+      <c r="Z151" s="8"/>
+      <c r="AA151" s="8"/>
+      <c r="AB151" s="8"/>
+      <c r="AC151" s="8"/>
+      <c r="AD151" s="8"/>
+      <c r="AE151" s="8"/>
+      <c r="AF151" s="8"/>
+      <c r="AG151" s="8"/>
+      <c r="AH151" s="8"/>
+      <c r="AI151" s="8"/>
+      <c r="AJ151" s="8"/>
+      <c r="AK151" s="8"/>
+      <c r="AL151" s="8"/>
+      <c r="AM151" s="8"/>
+      <c r="AN151" s="8"/>
+      <c r="AO151" s="8"/>
+      <c r="AP151" s="8"/>
+      <c r="AQ151" s="9"/>
+    </row>
+    <row r="152" spans="2:45">
+      <c r="B152" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+      <c r="Q152" s="8"/>
+      <c r="R152" s="8"/>
+      <c r="S152" s="8"/>
+      <c r="T152" s="8"/>
+      <c r="U152" s="8"/>
+      <c r="V152" s="8"/>
+      <c r="W152" s="8"/>
+      <c r="X152" s="8"/>
+      <c r="Y152" s="8"/>
+      <c r="Z152" s="8"/>
+      <c r="AA152" s="8"/>
+      <c r="AB152" s="8"/>
+      <c r="AC152" s="8"/>
+      <c r="AD152" s="8"/>
+      <c r="AE152" s="8"/>
+      <c r="AF152" s="8"/>
+      <c r="AG152" s="8"/>
+      <c r="AH152" s="8"/>
+      <c r="AI152" s="8"/>
+      <c r="AJ152" s="8"/>
+      <c r="AK152" s="8"/>
+      <c r="AL152" s="8"/>
+      <c r="AM152" s="8"/>
+      <c r="AN152" s="8"/>
+      <c r="AO152" s="8"/>
+      <c r="AP152" s="8"/>
+      <c r="AQ152" s="9"/>
+    </row>
+    <row r="153" spans="2:45">
+      <c r="B153" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
+      <c r="O153" s="8"/>
+      <c r="P153" s="8"/>
+      <c r="Q153" s="8"/>
+      <c r="R153" s="8"/>
+      <c r="S153" s="8"/>
+      <c r="T153" s="8"/>
+      <c r="U153" s="8"/>
+      <c r="V153" s="8"/>
+      <c r="W153" s="8"/>
+      <c r="X153" s="8"/>
+      <c r="Y153" s="8"/>
+      <c r="Z153" s="8"/>
+      <c r="AA153" s="8"/>
+      <c r="AB153" s="8"/>
+      <c r="AC153" s="8"/>
+      <c r="AD153" s="8"/>
+      <c r="AE153" s="8"/>
+      <c r="AF153" s="8"/>
+      <c r="AG153" s="8"/>
+      <c r="AH153" s="8"/>
+      <c r="AI153" s="8"/>
+      <c r="AJ153" s="8"/>
+      <c r="AK153" s="8"/>
+      <c r="AL153" s="8"/>
+      <c r="AM153" s="8"/>
+      <c r="AN153" s="8"/>
+      <c r="AO153" s="8"/>
+      <c r="AP153" s="8"/>
+      <c r="AQ153" s="9"/>
+    </row>
+    <row r="154" spans="2:45">
+      <c r="B154" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+      <c r="Q154" s="8"/>
+      <c r="R154" s="8"/>
+      <c r="S154" s="8"/>
+      <c r="T154" s="8"/>
+      <c r="U154" s="8"/>
+      <c r="V154" s="8"/>
+      <c r="W154" s="8"/>
+      <c r="X154" s="8"/>
+      <c r="Y154" s="8"/>
+      <c r="Z154" s="8"/>
+      <c r="AA154" s="8"/>
+      <c r="AB154" s="8"/>
+      <c r="AC154" s="8"/>
+      <c r="AD154" s="8"/>
+      <c r="AE154" s="8"/>
+      <c r="AF154" s="8"/>
+      <c r="AG154" s="8"/>
+      <c r="AH154" s="8"/>
+      <c r="AI154" s="8"/>
+      <c r="AJ154" s="8"/>
+      <c r="AK154" s="8"/>
+      <c r="AL154" s="8"/>
+      <c r="AM154" s="8"/>
+      <c r="AN154" s="8"/>
+      <c r="AO154" s="8"/>
+      <c r="AP154" s="8"/>
+      <c r="AQ154" s="9"/>
+    </row>
+    <row r="155" spans="2:45">
+      <c r="B155" s="12"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
+      <c r="M155" s="13"/>
+      <c r="N155" s="13"/>
+      <c r="O155" s="13"/>
+      <c r="P155" s="13"/>
+      <c r="Q155" s="13"/>
+      <c r="R155" s="13"/>
+      <c r="S155" s="13"/>
+      <c r="T155" s="13"/>
+      <c r="U155" s="13"/>
+      <c r="V155" s="13"/>
+      <c r="W155" s="13"/>
+      <c r="X155" s="13"/>
+      <c r="Y155" s="13"/>
+      <c r="Z155" s="13"/>
+      <c r="AA155" s="13"/>
+      <c r="AB155" s="13"/>
+      <c r="AC155" s="13"/>
+      <c r="AD155" s="13"/>
+      <c r="AE155" s="13"/>
+      <c r="AF155" s="13"/>
+      <c r="AG155" s="13"/>
+      <c r="AH155" s="13"/>
+      <c r="AI155" s="13"/>
+      <c r="AJ155" s="13"/>
+      <c r="AK155" s="13"/>
+      <c r="AL155" s="13"/>
+      <c r="AM155" s="13"/>
+      <c r="AN155" s="13"/>
+      <c r="AO155" s="13"/>
+      <c r="AP155" s="13"/>
+      <c r="AQ155" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12707,7 +12782,7 @@
       <c r="B187" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Q187" s="43"/>
+      <c r="Q187" s="34"/>
     </row>
     <row r="189" spans="2:33">
       <c r="B189" s="2" t="s">
@@ -12718,7 +12793,7 @@
       <c r="B190" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="Q190" s="43"/>
+      <c r="Q190" s="34"/>
     </row>
     <row r="191" spans="2:33">
       <c r="B191" s="2" t="s">
@@ -12726,12 +12801,12 @@
       </c>
     </row>
     <row r="193" spans="1:62">
-      <c r="B193" s="44" t="s">
+      <c r="B193" s="35" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="194" spans="1:62" s="27" customFormat="1">
-      <c r="A194" s="27" t="s">
+    <row r="194" spans="1:62" s="18" customFormat="1">
+      <c r="A194" s="18" t="s">
         <v>302</v>
       </c>
     </row>
@@ -12746,442 +12821,442 @@
       </c>
     </row>
     <row r="199" spans="1:62">
-      <c r="B199" s="36" t="s">
+      <c r="B199" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="C199" s="37"/>
-      <c r="D199" s="37"/>
-      <c r="E199" s="37"/>
-      <c r="F199" s="37"/>
-      <c r="G199" s="37"/>
-      <c r="H199" s="37"/>
-      <c r="I199" s="37"/>
-      <c r="J199" s="37"/>
-      <c r="K199" s="36" t="s">
+      <c r="C199" s="28"/>
+      <c r="D199" s="28"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="28"/>
+      <c r="H199" s="28"/>
+      <c r="I199" s="28"/>
+      <c r="J199" s="28"/>
+      <c r="K199" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="L199" s="37"/>
-      <c r="M199" s="37"/>
-      <c r="N199" s="37"/>
-      <c r="O199" s="37"/>
-      <c r="P199" s="37"/>
-      <c r="Q199" s="37"/>
-      <c r="R199" s="38"/>
-      <c r="S199" s="37" t="s">
+      <c r="L199" s="28"/>
+      <c r="M199" s="28"/>
+      <c r="N199" s="28"/>
+      <c r="O199" s="28"/>
+      <c r="P199" s="28"/>
+      <c r="Q199" s="28"/>
+      <c r="R199" s="29"/>
+      <c r="S199" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="T199" s="37"/>
-      <c r="U199" s="37"/>
-      <c r="V199" s="37"/>
-      <c r="W199" s="37"/>
-      <c r="X199" s="37"/>
-      <c r="Y199" s="36" t="s">
+      <c r="T199" s="28"/>
+      <c r="U199" s="28"/>
+      <c r="V199" s="28"/>
+      <c r="W199" s="28"/>
+      <c r="X199" s="28"/>
+      <c r="Y199" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="Z199" s="37"/>
-      <c r="AA199" s="37"/>
-      <c r="AB199" s="37"/>
-      <c r="AC199" s="37"/>
-      <c r="AD199" s="37"/>
-      <c r="AE199" s="37"/>
-      <c r="AF199" s="37"/>
-      <c r="AG199" s="37"/>
-      <c r="AH199" s="37"/>
-      <c r="AI199" s="37"/>
-      <c r="AJ199" s="37"/>
-      <c r="AK199" s="37"/>
-      <c r="AL199" s="37"/>
-      <c r="AM199" s="37"/>
-      <c r="AN199" s="37"/>
-      <c r="AO199" s="37"/>
-      <c r="AP199" s="36" t="s">
+      <c r="Z199" s="28"/>
+      <c r="AA199" s="28"/>
+      <c r="AB199" s="28"/>
+      <c r="AC199" s="28"/>
+      <c r="AD199" s="28"/>
+      <c r="AE199" s="28"/>
+      <c r="AF199" s="28"/>
+      <c r="AG199" s="28"/>
+      <c r="AH199" s="28"/>
+      <c r="AI199" s="28"/>
+      <c r="AJ199" s="28"/>
+      <c r="AK199" s="28"/>
+      <c r="AL199" s="28"/>
+      <c r="AM199" s="28"/>
+      <c r="AN199" s="28"/>
+      <c r="AO199" s="28"/>
+      <c r="AP199" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="AQ199" s="37"/>
-      <c r="AR199" s="37"/>
-      <c r="AS199" s="37"/>
-      <c r="AT199" s="37"/>
-      <c r="AU199" s="37"/>
-      <c r="AV199" s="37"/>
-      <c r="AW199" s="37"/>
-      <c r="AX199" s="37"/>
-      <c r="AY199" s="37"/>
-      <c r="AZ199" s="37"/>
-      <c r="BA199" s="37"/>
-      <c r="BB199" s="37"/>
-      <c r="BC199" s="37"/>
-      <c r="BD199" s="37"/>
-      <c r="BE199" s="37"/>
-      <c r="BF199" s="37"/>
-      <c r="BG199" s="37"/>
-      <c r="BH199" s="37"/>
-      <c r="BI199" s="37"/>
-      <c r="BJ199" s="38"/>
+      <c r="AQ199" s="28"/>
+      <c r="AR199" s="28"/>
+      <c r="AS199" s="28"/>
+      <c r="AT199" s="28"/>
+      <c r="AU199" s="28"/>
+      <c r="AV199" s="28"/>
+      <c r="AW199" s="28"/>
+      <c r="AX199" s="28"/>
+      <c r="AY199" s="28"/>
+      <c r="AZ199" s="28"/>
+      <c r="BA199" s="28"/>
+      <c r="BB199" s="28"/>
+      <c r="BC199" s="28"/>
+      <c r="BD199" s="28"/>
+      <c r="BE199" s="28"/>
+      <c r="BF199" s="28"/>
+      <c r="BG199" s="28"/>
+      <c r="BH199" s="28"/>
+      <c r="BI199" s="28"/>
+      <c r="BJ199" s="29"/>
     </row>
     <row r="200" spans="1:62">
-      <c r="B200" s="31" t="s">
+      <c r="B200" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="C200" s="32"/>
-      <c r="D200" s="32"/>
-      <c r="E200" s="32"/>
-      <c r="F200" s="32"/>
-      <c r="G200" s="32"/>
-      <c r="H200" s="32"/>
-      <c r="I200" s="32"/>
-      <c r="J200" s="32"/>
-      <c r="K200" s="34" t="s">
+      <c r="C200" s="23"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="23"/>
+      <c r="I200" s="23"/>
+      <c r="J200" s="23"/>
+      <c r="K200" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="L200" s="32"/>
-      <c r="M200" s="32"/>
-      <c r="N200" s="32"/>
-      <c r="O200" s="32"/>
-      <c r="P200" s="32"/>
-      <c r="Q200" s="32"/>
-      <c r="R200" s="33"/>
-      <c r="S200" s="32" t="s">
+      <c r="L200" s="23"/>
+      <c r="M200" s="23"/>
+      <c r="N200" s="23"/>
+      <c r="O200" s="23"/>
+      <c r="P200" s="23"/>
+      <c r="Q200" s="23"/>
+      <c r="R200" s="24"/>
+      <c r="S200" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="T200" s="32"/>
-      <c r="U200" s="32"/>
-      <c r="V200" s="32"/>
-      <c r="W200" s="32"/>
-      <c r="X200" s="32"/>
-      <c r="Y200" s="34" t="s">
+      <c r="T200" s="23"/>
+      <c r="U200" s="23"/>
+      <c r="V200" s="23"/>
+      <c r="W200" s="23"/>
+      <c r="X200" s="23"/>
+      <c r="Y200" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="Z200" s="32"/>
-      <c r="AA200" s="32"/>
-      <c r="AB200" s="32"/>
-      <c r="AC200" s="32"/>
-      <c r="AD200" s="32"/>
-      <c r="AE200" s="32"/>
-      <c r="AF200" s="32"/>
-      <c r="AG200" s="32"/>
-      <c r="AH200" s="32"/>
-      <c r="AI200" s="32"/>
-      <c r="AJ200" s="32"/>
-      <c r="AK200" s="32"/>
-      <c r="AL200" s="32"/>
-      <c r="AM200" s="32"/>
-      <c r="AN200" s="32"/>
-      <c r="AO200" s="32"/>
-      <c r="AP200" s="31" t="s">
+      <c r="Z200" s="23"/>
+      <c r="AA200" s="23"/>
+      <c r="AB200" s="23"/>
+      <c r="AC200" s="23"/>
+      <c r="AD200" s="23"/>
+      <c r="AE200" s="23"/>
+      <c r="AF200" s="23"/>
+      <c r="AG200" s="23"/>
+      <c r="AH200" s="23"/>
+      <c r="AI200" s="23"/>
+      <c r="AJ200" s="23"/>
+      <c r="AK200" s="23"/>
+      <c r="AL200" s="23"/>
+      <c r="AM200" s="23"/>
+      <c r="AN200" s="23"/>
+      <c r="AO200" s="23"/>
+      <c r="AP200" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="AQ200" s="32"/>
-      <c r="AR200" s="32"/>
-      <c r="AS200" s="32"/>
-      <c r="AT200" s="32"/>
-      <c r="AU200" s="32"/>
-      <c r="AV200" s="32"/>
-      <c r="AW200" s="32"/>
-      <c r="AX200" s="32"/>
-      <c r="AY200" s="32"/>
-      <c r="AZ200" s="32"/>
-      <c r="BA200" s="32"/>
-      <c r="BB200" s="32"/>
-      <c r="BC200" s="32"/>
-      <c r="BD200" s="32"/>
-      <c r="BE200" s="32"/>
-      <c r="BF200" s="32"/>
-      <c r="BG200" s="32"/>
-      <c r="BH200" s="32"/>
-      <c r="BI200" s="32"/>
-      <c r="BJ200" s="33"/>
+      <c r="AQ200" s="23"/>
+      <c r="AR200" s="23"/>
+      <c r="AS200" s="23"/>
+      <c r="AT200" s="23"/>
+      <c r="AU200" s="23"/>
+      <c r="AV200" s="23"/>
+      <c r="AW200" s="23"/>
+      <c r="AX200" s="23"/>
+      <c r="AY200" s="23"/>
+      <c r="AZ200" s="23"/>
+      <c r="BA200" s="23"/>
+      <c r="BB200" s="23"/>
+      <c r="BC200" s="23"/>
+      <c r="BD200" s="23"/>
+      <c r="BE200" s="23"/>
+      <c r="BF200" s="23"/>
+      <c r="BG200" s="23"/>
+      <c r="BH200" s="23"/>
+      <c r="BI200" s="23"/>
+      <c r="BJ200" s="24"/>
     </row>
     <row r="201" spans="1:62">
-      <c r="B201" s="28" t="s">
+      <c r="B201" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="C201" s="29"/>
-      <c r="D201" s="29"/>
-      <c r="E201" s="29"/>
-      <c r="F201" s="29"/>
-      <c r="G201" s="29"/>
-      <c r="H201" s="29"/>
-      <c r="I201" s="29"/>
-      <c r="J201" s="29"/>
-      <c r="K201" s="35" t="s">
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="20"/>
+      <c r="K201" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="L201" s="29"/>
-      <c r="M201" s="29"/>
-      <c r="N201" s="29"/>
-      <c r="O201" s="29"/>
-      <c r="P201" s="29"/>
-      <c r="Q201" s="29"/>
-      <c r="R201" s="30"/>
-      <c r="S201" s="29" t="s">
+      <c r="L201" s="20"/>
+      <c r="M201" s="20"/>
+      <c r="N201" s="20"/>
+      <c r="O201" s="20"/>
+      <c r="P201" s="20"/>
+      <c r="Q201" s="20"/>
+      <c r="R201" s="21"/>
+      <c r="S201" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="T201" s="29"/>
-      <c r="U201" s="29"/>
-      <c r="V201" s="29"/>
-      <c r="W201" s="29"/>
-      <c r="X201" s="29"/>
-      <c r="Y201" s="35" t="s">
+      <c r="T201" s="20"/>
+      <c r="U201" s="20"/>
+      <c r="V201" s="20"/>
+      <c r="W201" s="20"/>
+      <c r="X201" s="20"/>
+      <c r="Y201" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="Z201" s="29"/>
-      <c r="AA201" s="29"/>
-      <c r="AB201" s="29"/>
-      <c r="AC201" s="29"/>
-      <c r="AD201" s="29"/>
-      <c r="AE201" s="29"/>
-      <c r="AF201" s="29"/>
-      <c r="AG201" s="29"/>
-      <c r="AH201" s="29"/>
-      <c r="AI201" s="29"/>
-      <c r="AJ201" s="29"/>
-      <c r="AK201" s="29"/>
-      <c r="AL201" s="29"/>
-      <c r="AM201" s="29"/>
-      <c r="AN201" s="29"/>
-      <c r="AO201" s="29"/>
-      <c r="AP201" s="28" t="s">
+      <c r="Z201" s="20"/>
+      <c r="AA201" s="20"/>
+      <c r="AB201" s="20"/>
+      <c r="AC201" s="20"/>
+      <c r="AD201" s="20"/>
+      <c r="AE201" s="20"/>
+      <c r="AF201" s="20"/>
+      <c r="AG201" s="20"/>
+      <c r="AH201" s="20"/>
+      <c r="AI201" s="20"/>
+      <c r="AJ201" s="20"/>
+      <c r="AK201" s="20"/>
+      <c r="AL201" s="20"/>
+      <c r="AM201" s="20"/>
+      <c r="AN201" s="20"/>
+      <c r="AO201" s="20"/>
+      <c r="AP201" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="AQ201" s="29"/>
-      <c r="AR201" s="29"/>
-      <c r="AS201" s="29"/>
-      <c r="AT201" s="29"/>
-      <c r="AU201" s="29"/>
-      <c r="AV201" s="29"/>
-      <c r="AW201" s="29"/>
-      <c r="AX201" s="29"/>
-      <c r="AY201" s="29"/>
-      <c r="AZ201" s="29"/>
-      <c r="BA201" s="29"/>
-      <c r="BB201" s="29"/>
-      <c r="BC201" s="29"/>
-      <c r="BD201" s="29"/>
-      <c r="BE201" s="29"/>
-      <c r="BF201" s="29"/>
-      <c r="BG201" s="29"/>
-      <c r="BH201" s="29"/>
-      <c r="BI201" s="29"/>
-      <c r="BJ201" s="30"/>
+      <c r="AQ201" s="20"/>
+      <c r="AR201" s="20"/>
+      <c r="AS201" s="20"/>
+      <c r="AT201" s="20"/>
+      <c r="AU201" s="20"/>
+      <c r="AV201" s="20"/>
+      <c r="AW201" s="20"/>
+      <c r="AX201" s="20"/>
+      <c r="AY201" s="20"/>
+      <c r="AZ201" s="20"/>
+      <c r="BA201" s="20"/>
+      <c r="BB201" s="20"/>
+      <c r="BC201" s="20"/>
+      <c r="BD201" s="20"/>
+      <c r="BE201" s="20"/>
+      <c r="BF201" s="20"/>
+      <c r="BG201" s="20"/>
+      <c r="BH201" s="20"/>
+      <c r="BI201" s="20"/>
+      <c r="BJ201" s="21"/>
     </row>
     <row r="202" spans="1:62">
-      <c r="B202" s="28" t="s">
+      <c r="B202" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="C202" s="29"/>
-      <c r="D202" s="29"/>
-      <c r="E202" s="29"/>
-      <c r="F202" s="29"/>
-      <c r="G202" s="29"/>
-      <c r="H202" s="29"/>
-      <c r="I202" s="29"/>
-      <c r="J202" s="29"/>
-      <c r="K202" s="35" t="s">
+      <c r="C202" s="20"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="20"/>
+      <c r="K202" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="L202" s="29"/>
-      <c r="M202" s="29"/>
-      <c r="N202" s="29"/>
-      <c r="O202" s="29"/>
-      <c r="P202" s="29"/>
-      <c r="Q202" s="29"/>
-      <c r="R202" s="30"/>
-      <c r="S202" s="29" t="s">
+      <c r="L202" s="20"/>
+      <c r="M202" s="20"/>
+      <c r="N202" s="20"/>
+      <c r="O202" s="20"/>
+      <c r="P202" s="20"/>
+      <c r="Q202" s="20"/>
+      <c r="R202" s="21"/>
+      <c r="S202" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="T202" s="29"/>
-      <c r="U202" s="29"/>
-      <c r="V202" s="29"/>
-      <c r="W202" s="29"/>
-      <c r="X202" s="29"/>
-      <c r="Y202" s="35" t="s">
+      <c r="T202" s="20"/>
+      <c r="U202" s="20"/>
+      <c r="V202" s="20"/>
+      <c r="W202" s="20"/>
+      <c r="X202" s="20"/>
+      <c r="Y202" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="Z202" s="29"/>
-      <c r="AA202" s="29"/>
-      <c r="AB202" s="29"/>
-      <c r="AC202" s="29"/>
-      <c r="AD202" s="29"/>
-      <c r="AE202" s="29"/>
-      <c r="AF202" s="29"/>
-      <c r="AG202" s="29"/>
-      <c r="AH202" s="29"/>
-      <c r="AI202" s="29"/>
-      <c r="AJ202" s="29"/>
-      <c r="AK202" s="29"/>
-      <c r="AL202" s="29"/>
-      <c r="AM202" s="29"/>
-      <c r="AN202" s="29"/>
-      <c r="AO202" s="29"/>
-      <c r="AP202" s="28" t="s">
+      <c r="Z202" s="20"/>
+      <c r="AA202" s="20"/>
+      <c r="AB202" s="20"/>
+      <c r="AC202" s="20"/>
+      <c r="AD202" s="20"/>
+      <c r="AE202" s="20"/>
+      <c r="AF202" s="20"/>
+      <c r="AG202" s="20"/>
+      <c r="AH202" s="20"/>
+      <c r="AI202" s="20"/>
+      <c r="AJ202" s="20"/>
+      <c r="AK202" s="20"/>
+      <c r="AL202" s="20"/>
+      <c r="AM202" s="20"/>
+      <c r="AN202" s="20"/>
+      <c r="AO202" s="20"/>
+      <c r="AP202" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="AQ202" s="29"/>
-      <c r="AR202" s="29"/>
-      <c r="AS202" s="29"/>
-      <c r="AT202" s="29"/>
-      <c r="AU202" s="29"/>
-      <c r="AV202" s="29"/>
-      <c r="AW202" s="29"/>
-      <c r="AX202" s="29"/>
-      <c r="AY202" s="29"/>
-      <c r="AZ202" s="29"/>
-      <c r="BA202" s="29"/>
-      <c r="BB202" s="29"/>
-      <c r="BC202" s="29"/>
-      <c r="BD202" s="29"/>
-      <c r="BE202" s="29"/>
-      <c r="BF202" s="29"/>
-      <c r="BG202" s="29"/>
-      <c r="BH202" s="29"/>
-      <c r="BI202" s="29"/>
-      <c r="BJ202" s="30"/>
+      <c r="AQ202" s="20"/>
+      <c r="AR202" s="20"/>
+      <c r="AS202" s="20"/>
+      <c r="AT202" s="20"/>
+      <c r="AU202" s="20"/>
+      <c r="AV202" s="20"/>
+      <c r="AW202" s="20"/>
+      <c r="AX202" s="20"/>
+      <c r="AY202" s="20"/>
+      <c r="AZ202" s="20"/>
+      <c r="BA202" s="20"/>
+      <c r="BB202" s="20"/>
+      <c r="BC202" s="20"/>
+      <c r="BD202" s="20"/>
+      <c r="BE202" s="20"/>
+      <c r="BF202" s="20"/>
+      <c r="BG202" s="20"/>
+      <c r="BH202" s="20"/>
+      <c r="BI202" s="20"/>
+      <c r="BJ202" s="21"/>
     </row>
     <row r="203" spans="1:62">
-      <c r="B203" s="28" t="s">
+      <c r="B203" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="C203" s="29"/>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="29"/>
-      <c r="H203" s="29"/>
-      <c r="I203" s="29"/>
-      <c r="J203" s="29"/>
-      <c r="K203" s="35" t="s">
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="20"/>
+      <c r="K203" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="L203" s="29"/>
-      <c r="M203" s="29"/>
-      <c r="N203" s="29"/>
-      <c r="O203" s="29"/>
-      <c r="P203" s="29"/>
-      <c r="Q203" s="29"/>
-      <c r="R203" s="30"/>
-      <c r="S203" s="29" t="s">
+      <c r="L203" s="20"/>
+      <c r="M203" s="20"/>
+      <c r="N203" s="20"/>
+      <c r="O203" s="20"/>
+      <c r="P203" s="20"/>
+      <c r="Q203" s="20"/>
+      <c r="R203" s="21"/>
+      <c r="S203" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="T203" s="29"/>
-      <c r="U203" s="29"/>
-      <c r="V203" s="29"/>
-      <c r="W203" s="29"/>
-      <c r="X203" s="29"/>
-      <c r="Y203" s="35" t="s">
+      <c r="T203" s="20"/>
+      <c r="U203" s="20"/>
+      <c r="V203" s="20"/>
+      <c r="W203" s="20"/>
+      <c r="X203" s="20"/>
+      <c r="Y203" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="Z203" s="29"/>
-      <c r="AA203" s="29"/>
-      <c r="AB203" s="29"/>
-      <c r="AC203" s="29"/>
-      <c r="AD203" s="29"/>
-      <c r="AE203" s="29"/>
-      <c r="AF203" s="29"/>
-      <c r="AG203" s="29"/>
-      <c r="AH203" s="29"/>
-      <c r="AI203" s="29"/>
-      <c r="AJ203" s="29"/>
-      <c r="AK203" s="29"/>
-      <c r="AL203" s="29"/>
-      <c r="AM203" s="29"/>
-      <c r="AN203" s="29"/>
-      <c r="AO203" s="29"/>
-      <c r="AP203" s="28" t="s">
+      <c r="Z203" s="20"/>
+      <c r="AA203" s="20"/>
+      <c r="AB203" s="20"/>
+      <c r="AC203" s="20"/>
+      <c r="AD203" s="20"/>
+      <c r="AE203" s="20"/>
+      <c r="AF203" s="20"/>
+      <c r="AG203" s="20"/>
+      <c r="AH203" s="20"/>
+      <c r="AI203" s="20"/>
+      <c r="AJ203" s="20"/>
+      <c r="AK203" s="20"/>
+      <c r="AL203" s="20"/>
+      <c r="AM203" s="20"/>
+      <c r="AN203" s="20"/>
+      <c r="AO203" s="20"/>
+      <c r="AP203" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="AQ203" s="29"/>
-      <c r="AR203" s="29"/>
-      <c r="AS203" s="29"/>
-      <c r="AT203" s="29"/>
-      <c r="AU203" s="29"/>
-      <c r="AV203" s="29"/>
-      <c r="AW203" s="29"/>
-      <c r="AX203" s="29"/>
-      <c r="AY203" s="29"/>
-      <c r="AZ203" s="29"/>
-      <c r="BA203" s="29"/>
-      <c r="BB203" s="29"/>
-      <c r="BC203" s="29"/>
-      <c r="BD203" s="29"/>
-      <c r="BE203" s="29"/>
-      <c r="BF203" s="29"/>
-      <c r="BG203" s="29"/>
-      <c r="BH203" s="29"/>
-      <c r="BI203" s="29"/>
-      <c r="BJ203" s="30"/>
+      <c r="AQ203" s="20"/>
+      <c r="AR203" s="20"/>
+      <c r="AS203" s="20"/>
+      <c r="AT203" s="20"/>
+      <c r="AU203" s="20"/>
+      <c r="AV203" s="20"/>
+      <c r="AW203" s="20"/>
+      <c r="AX203" s="20"/>
+      <c r="AY203" s="20"/>
+      <c r="AZ203" s="20"/>
+      <c r="BA203" s="20"/>
+      <c r="BB203" s="20"/>
+      <c r="BC203" s="20"/>
+      <c r="BD203" s="20"/>
+      <c r="BE203" s="20"/>
+      <c r="BF203" s="20"/>
+      <c r="BG203" s="20"/>
+      <c r="BH203" s="20"/>
+      <c r="BI203" s="20"/>
+      <c r="BJ203" s="21"/>
     </row>
     <row r="204" spans="1:62">
-      <c r="B204" s="39" t="s">
+      <c r="B204" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="C204" s="40"/>
-      <c r="D204" s="40"/>
-      <c r="E204" s="40"/>
-      <c r="F204" s="40"/>
-      <c r="G204" s="40"/>
-      <c r="H204" s="40"/>
-      <c r="I204" s="40"/>
-      <c r="J204" s="40"/>
-      <c r="K204" s="41" t="s">
+      <c r="C204" s="31"/>
+      <c r="D204" s="31"/>
+      <c r="E204" s="31"/>
+      <c r="F204" s="31"/>
+      <c r="G204" s="31"/>
+      <c r="H204" s="31"/>
+      <c r="I204" s="31"/>
+      <c r="J204" s="31"/>
+      <c r="K204" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="L204" s="40"/>
-      <c r="M204" s="40"/>
-      <c r="N204" s="40"/>
-      <c r="O204" s="40"/>
-      <c r="P204" s="40"/>
-      <c r="Q204" s="40"/>
-      <c r="R204" s="42"/>
-      <c r="S204" s="40" t="s">
+      <c r="L204" s="31"/>
+      <c r="M204" s="31"/>
+      <c r="N204" s="31"/>
+      <c r="O204" s="31"/>
+      <c r="P204" s="31"/>
+      <c r="Q204" s="31"/>
+      <c r="R204" s="33"/>
+      <c r="S204" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="T204" s="40"/>
-      <c r="U204" s="40"/>
-      <c r="V204" s="40"/>
-      <c r="W204" s="40"/>
-      <c r="X204" s="40"/>
-      <c r="Y204" s="41" t="s">
+      <c r="T204" s="31"/>
+      <c r="U204" s="31"/>
+      <c r="V204" s="31"/>
+      <c r="W204" s="31"/>
+      <c r="X204" s="31"/>
+      <c r="Y204" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="Z204" s="40"/>
-      <c r="AA204" s="40"/>
-      <c r="AB204" s="40"/>
-      <c r="AC204" s="40"/>
-      <c r="AD204" s="40"/>
-      <c r="AE204" s="40"/>
-      <c r="AF204" s="40"/>
-      <c r="AG204" s="40"/>
-      <c r="AH204" s="40"/>
-      <c r="AI204" s="40"/>
-      <c r="AJ204" s="40"/>
-      <c r="AK204" s="40"/>
-      <c r="AL204" s="40"/>
-      <c r="AM204" s="40"/>
-      <c r="AN204" s="40"/>
-      <c r="AO204" s="40"/>
-      <c r="AP204" s="39" t="s">
+      <c r="Z204" s="31"/>
+      <c r="AA204" s="31"/>
+      <c r="AB204" s="31"/>
+      <c r="AC204" s="31"/>
+      <c r="AD204" s="31"/>
+      <c r="AE204" s="31"/>
+      <c r="AF204" s="31"/>
+      <c r="AG204" s="31"/>
+      <c r="AH204" s="31"/>
+      <c r="AI204" s="31"/>
+      <c r="AJ204" s="31"/>
+      <c r="AK204" s="31"/>
+      <c r="AL204" s="31"/>
+      <c r="AM204" s="31"/>
+      <c r="AN204" s="31"/>
+      <c r="AO204" s="31"/>
+      <c r="AP204" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="AQ204" s="40"/>
-      <c r="AR204" s="40"/>
-      <c r="AS204" s="40"/>
-      <c r="AT204" s="40"/>
-      <c r="AU204" s="40"/>
-      <c r="AV204" s="40"/>
-      <c r="AW204" s="40"/>
-      <c r="AX204" s="40"/>
-      <c r="AY204" s="40"/>
-      <c r="AZ204" s="40"/>
-      <c r="BA204" s="40"/>
-      <c r="BB204" s="40"/>
-      <c r="BC204" s="40"/>
-      <c r="BD204" s="40"/>
-      <c r="BE204" s="40"/>
-      <c r="BF204" s="40"/>
-      <c r="BG204" s="40"/>
-      <c r="BH204" s="40"/>
-      <c r="BI204" s="40"/>
-      <c r="BJ204" s="42"/>
+      <c r="AQ204" s="31"/>
+      <c r="AR204" s="31"/>
+      <c r="AS204" s="31"/>
+      <c r="AT204" s="31"/>
+      <c r="AU204" s="31"/>
+      <c r="AV204" s="31"/>
+      <c r="AW204" s="31"/>
+      <c r="AX204" s="31"/>
+      <c r="AY204" s="31"/>
+      <c r="AZ204" s="31"/>
+      <c r="BA204" s="31"/>
+      <c r="BB204" s="31"/>
+      <c r="BC204" s="31"/>
+      <c r="BD204" s="31"/>
+      <c r="BE204" s="31"/>
+      <c r="BF204" s="31"/>
+      <c r="BG204" s="31"/>
+      <c r="BH204" s="31"/>
+      <c r="BI204" s="31"/>
+      <c r="BJ204" s="33"/>
     </row>
     <row r="206" spans="1:62">
       <c r="B206" s="2" t="s">

--- a/実装指針及び実装ガイド.xlsx
+++ b/実装指針及び実装ガイド.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8875682-3D72-47A7-A794-0F532056B873}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3023A8AB-DBB6-4F13-A4D8-A513EB79D3AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="4. Java" sheetId="5" r:id="rId5"/>
     <sheet name="5. BeanValidation" sheetId="6" r:id="rId6"/>
     <sheet name="6. SessionScope" sheetId="7" r:id="rId7"/>
+    <sheet name="7. PathParameter" sheetId="8" r:id="rId8"/>
+    <sheet name="8. formに複数の遷移先を設定" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="389">
   <si>
     <t>■本ドキュメントの目的</t>
     <rPh sb="1" eb="2">
@@ -3401,12 +3403,738 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>7. パスパラメータの使用方法</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■パスパラメータとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLに情報を付与し、Java側で扱うための技術</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/aimsoft/register/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>というURLがあったとき、@RequestMapping(value = "/register/{kind}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>としてやると、kind = 2として取得できるようなもの。</t>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ControllerとHTMLの連携によって実装可能。</t>
+    <rPh sb="16" eb="18">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bチームで使用する想定のもの。Aチームも必要に応じて使ってください。</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8. 1つのformに複数のactionを設定する方法</t>
+    <rPh sb="11" eb="13">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■formに複数の遷移先を付与する</t>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formにはaction属性があり、このaction属性で指定したURLに紐づくControllerのメソッドに処理が飛びます。</t>
+    <rPh sb="12" eb="14">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が、1つのformに複数のactionを設定することはできません。</t>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の想像では出退勤を行う画面で必要となると思うので、この場合は以下のように対処してください。</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュッタイキン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;p&gt;社員ID：&lt;input type="text" name="id" data-th-value="${form.id}" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;p&gt;出勤時間：&lt;input type="text" name="startDatetime" data-th-value="${form.startDatetime}" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;p&gt;退勤時間：&lt;input type="text" name="endDatetime" data-th-value="${form.endDatetime}" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>★HTML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;form method="POST" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>action=""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;br /&gt;&lt;button type="submit" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data-th-formaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="@{/user/registration/syukkin}"&gt;出勤&lt;/button&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;br /&gt;&lt;button type="submit" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data-th-formaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="@{/user/registration/taikin}"&gt;退勤&lt;/button&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①formタグのactionには何も指定しない</t>
+    <rPh sb="16" eb="17">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>②ボタンに対して実行するURLを、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data-th-formaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>として設定する</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formaction属性はHTML5より使用できる、formのaction属性を上書きするものです。</t>
+    <rPh sb="10" eb="12">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これをThymeleaf流にdata-thを付与したものとなります。</t>
+    <rPh sb="12" eb="13">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の内容はたぶんこうなるだろうと予測しているもので、「8. formに複数の遷移先を設定」を参照の上確認してください。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;form method="POST"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> action=""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;br /&gt;&lt;button type="submit" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data-th-formaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="@{/user/registration/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}"&gt;出勤&lt;/button&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;br /&gt;&lt;button type="submit" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data-th-formaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="@{/user/registration/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}"&gt;退勤&lt;/button&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@ModelAttribute("form") @Valid UserForm form, BindingResult result) {</t>
+  </si>
+  <si>
+    <r>
+      <t>public ModelAndView register(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>@PathVariable("attendanceKind") String attendanceKind,</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if("1".equals(attendanceKind)){</t>
+  </si>
+  <si>
+    <t>// /user/registration/1　とした場合に入る処理</t>
+  </si>
+  <si>
+    <t>} else if("2".equals(attendanceKind)){</t>
+  </si>
+  <si>
+    <t>// /user/registraton/2 とした場合に入る処理</t>
+  </si>
+  <si>
+    <r>
+      <t>@RequestMapping(value = "/user/registration/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>{attendanceKind}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>", method = RequestMethod.POST)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ControllerのRequestMappingのvalueに対して、"/user/registration/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>{attendanceKind}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"というように、{}でURLを記載します（attendanceKindのところはどんな名前でもOK）</t>
+    </r>
+    <rPh sb="32" eb="33">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Controllerの引数に、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>@PathVariable("attendanceKind") String attendanceKind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>としてやることで、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>{attendanceKind}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">に該当する箇所に入っている値を String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>attendanceKind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に代入してくれます。</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よって、以降のプログラムでは、attendanceKindに{attendanceKind}に指定したデータが入ってくるので、これによって出勤ボタン押した？退勤ボタン押した？というのを判別することが可能です。</t>
+    <rPh sb="4" eb="6">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ハンベツ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この例では、HTMLにて出勤ボタンを押すと、"1"が、退勤ボタンを押すと"2"がattendanceKindに入ってきます。</t>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3496,6 +4224,23 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3811,7 +4556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3848,21 +4593,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3875,7 +4606,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4157,9 +4913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="19.5"/>
   <cols>
@@ -4258,8 +5016,18 @@
         <v>284</v>
       </c>
     </row>
+    <row r="22" spans="2:4">
+      <c r="C22" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
     <row r="23" spans="2:4">
       <c r="C23" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4297,31 +5065,31 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
     </row>
     <row r="5" spans="1:25">
       <c r="B5" s="2" t="s">
@@ -4384,402 +5152,420 @@
       </c>
     </row>
     <row r="19" spans="1:42">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="42"/>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
     </row>
     <row r="20" spans="1:42">
-      <c r="B20" s="43">
+      <c r="B20" s="39">
         <f>ROW()-19</f>
         <v>1</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="44"/>
-      <c r="AL20" s="44"/>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
     </row>
     <row r="21" spans="1:42">
-      <c r="B21" s="38">
+      <c r="B21" s="41">
         <f t="shared" ref="B21:B26" si="0">ROW()-19</f>
         <v>2</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39" t="s">
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="39"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
     </row>
     <row r="22" spans="1:42" ht="99.95" customHeight="1">
-      <c r="B22" s="38">
+      <c r="B22" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40" t="s">
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="39"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="39"/>
-      <c r="AP22" s="39"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
     </row>
     <row r="23" spans="1:42" ht="39.950000000000003" customHeight="1">
-      <c r="B23" s="38">
+      <c r="B23" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="40"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="40"/>
-      <c r="AO23" s="40"/>
-      <c r="AP23" s="40"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
     </row>
     <row r="24" spans="1:42" ht="80.099999999999994" customHeight="1">
-      <c r="B24" s="38">
+      <c r="B24" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39" t="s">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="40" t="s">
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="40"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="40"/>
-      <c r="AO24" s="40"/>
-      <c r="AP24" s="40"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43"/>
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="43"/>
+      <c r="AN24" s="43"/>
+      <c r="AO24" s="43"/>
+      <c r="AP24" s="43"/>
     </row>
     <row r="25" spans="1:42">
-      <c r="B25" s="38">
+      <c r="B25" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="41"/>
+      <c r="D25" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39" t="s">
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="39"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="42"/>
+      <c r="AM25" s="42"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="42"/>
     </row>
     <row r="26" spans="1:42">
-      <c r="B26" s="36">
+      <c r="B26" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="37"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AP26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AP25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:AP23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AP24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:AP21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:AP22"/>
     <mergeCell ref="C4:Y4"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:J19"/>
@@ -4787,24 +5573,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="K20:AP20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:AP21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:AP22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="K23:AP23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AP24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AP26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AP25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7408,39 +8176,39 @@
       <c r="C86" s="18"/>
     </row>
     <row r="87" spans="1:20" s="8" customFormat="1">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="C87" s="45"/>
+      <c r="C87" s="36"/>
     </row>
     <row r="88" spans="1:20" s="8" customFormat="1">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="C88" s="45"/>
+      <c r="C88" s="36"/>
     </row>
     <row r="89" spans="1:20" s="8" customFormat="1">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45" t="s">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="C89" s="45"/>
+      <c r="C89" s="36"/>
     </row>
     <row r="90" spans="1:20" s="8" customFormat="1">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="C90" s="45"/>
+      <c r="C90" s="36"/>
     </row>
     <row r="91" spans="1:20" s="8" customFormat="1">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45" t="s">
+      <c r="A91" s="36"/>
+      <c r="B91" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="C91" s="45"/>
+      <c r="C91" s="36"/>
     </row>
     <row r="92" spans="1:20" s="13" customFormat="1"/>
     <row r="94" spans="1:20">
@@ -9213,7 +9981,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BJ215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
@@ -13814,4 +14582,1242 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF06CC1-6BCF-46A7-983E-CBF280E7A055}">
+  <dimension ref="A1:AM37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="B2" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="B3" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="18.75">
+      <c r="B4" s="46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="18.75">
+      <c r="B13" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="49"/>
+    </row>
+    <row r="14" spans="1:39" ht="18.75">
+      <c r="B14" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="52"/>
+    </row>
+    <row r="15" spans="1:39" ht="18.75">
+      <c r="B15" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="52"/>
+    </row>
+    <row r="16" spans="1:39" ht="18.75">
+      <c r="B16" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="52"/>
+    </row>
+    <row r="17" spans="2:39" ht="18.75">
+      <c r="B17" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="52"/>
+    </row>
+    <row r="18" spans="2:39" ht="18.75">
+      <c r="B18" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="52"/>
+    </row>
+    <row r="19" spans="2:39" ht="18.75">
+      <c r="B19" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="52"/>
+    </row>
+    <row r="20" spans="2:39" ht="18.75">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="55"/>
+    </row>
+    <row r="22" spans="2:39">
+      <c r="B22" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39">
+      <c r="B23" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="6"/>
+    </row>
+    <row r="24" spans="2:39">
+      <c r="B24" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="9"/>
+    </row>
+    <row r="25" spans="2:39">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="9"/>
+    </row>
+    <row r="26" spans="2:39">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="9"/>
+    </row>
+    <row r="27" spans="2:39">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="9"/>
+    </row>
+    <row r="28" spans="2:39">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="9"/>
+    </row>
+    <row r="29" spans="2:39">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="9"/>
+    </row>
+    <row r="30" spans="2:39">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="9"/>
+    </row>
+    <row r="31" spans="2:39">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="9"/>
+    </row>
+    <row r="32" spans="2:39">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="14"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{7BA5A2DF-A568-4849-A152-1E57AC85BDC6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654FCBC1-4A2B-4F87-BD52-ECFEF3B4400A}">
+  <dimension ref="A1:AM20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="B3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="49"/>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="52"/>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="52"/>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="52"/>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="B11" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="52"/>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="52"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="52"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="54"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="55"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>